--- a/results.xlsx
+++ b/results.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="78">
   <si>
     <t>dataset1</t>
   </si>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">Inheritance oracle </t>
   </si>
   <si>
-    <t>ours-review-20</t>
+    <t xml:space="preserve">ours-zero-shot-20 </t>
   </si>
   <si>
     <t xml:space="preserve"> ave_score_allsys</t>
@@ -161,10 +161,7 @@
     <t>baseline-zero-shot-20</t>
   </si>
   <si>
-    <t>baseline-one-shot-20-H2Sshort（del_H2S）</t>
-  </si>
-  <si>
-    <t>ave</t>
+    <t>baseline-one-shot-20-H2Sshort</t>
   </si>
   <si>
     <t>baseline-one-shot-20-BTMS</t>
@@ -179,19 +176,10 @@
     <t>dataset2</t>
   </si>
   <si>
-    <t xml:space="preserve">ours-zero-shot-20 </t>
-  </si>
-  <si>
     <t>ours-one-shot-20-H2Sshort</t>
   </si>
   <si>
-    <t>baseline-one-shot-20-H2Sshort</t>
-  </si>
-  <si>
     <t>dataset3</t>
-  </si>
-  <si>
-    <t>ours-zero-shot-20</t>
   </si>
   <si>
     <t>ours</t>
@@ -216,6 +204,9 @@
   </si>
   <si>
     <t>ours-class-H2S-第一轮对话（有中间过程）</t>
+  </si>
+  <si>
+    <t>ave</t>
   </si>
   <si>
     <t>decompose</t>
@@ -291,7 +282,7 @@
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +307,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -848,137 +847,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,6 +1074,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,88 +1116,130 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3569,16 +3613,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>36195</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>138430</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>119380</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>299085</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>382270</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3586,7 +3630,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6549390" y="1338580"/>
+        <a:off x="5984875" y="4726305"/>
         <a:ext cx="10770870" cy="7278370"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4298,2815 +4342,2883 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O43" sqref="O43"/>
+      <selection pane="topRight" activeCell="Z26" sqref="Z26:Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="29.4424778761062" style="14" customWidth="1"/>
-    <col min="3" max="3" width="17.1061946902655" style="45" customWidth="1"/>
-    <col min="4" max="6" width="9.53097345132743" style="46"/>
-    <col min="7" max="7" width="9.02654867256637" style="46" customWidth="1"/>
-    <col min="8" max="8" width="9.53097345132743" style="46"/>
-    <col min="9" max="9" width="10.3716814159292" style="46"/>
-    <col min="10" max="10" width="9.53097345132743" style="46"/>
-    <col min="11" max="11" width="9.02654867256637" style="46" customWidth="1"/>
-    <col min="12" max="15" width="9.02654867256637" style="46" hidden="1" customWidth="1"/>
-    <col min="16" max="18" width="10.3716814159292" style="46"/>
-    <col min="19" max="19" width="9.02654867256637" style="46" customWidth="1"/>
-    <col min="20" max="20" width="10.3716814159292" style="46"/>
-    <col min="21" max="21" width="9.3716814159292" style="46"/>
-    <col min="22" max="22" width="10.3716814159292" style="46"/>
+    <col min="3" max="3" width="17.1061946902655" style="47" customWidth="1"/>
+    <col min="4" max="6" width="9.53097345132743" style="48"/>
+    <col min="7" max="7" width="9.02654867256637" style="48" customWidth="1"/>
+    <col min="8" max="8" width="9.53097345132743" style="48"/>
+    <col min="9" max="9" width="10.3716814159292" style="48"/>
+    <col min="10" max="10" width="9.53097345132743" style="48"/>
+    <col min="11" max="11" width="9.02654867256637" style="48" customWidth="1"/>
+    <col min="12" max="15" width="9.02654867256637" style="48" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="10.3716814159292" style="48"/>
+    <col min="19" max="19" width="9.02654867256637" style="48" customWidth="1"/>
+    <col min="20" max="20" width="10.3716814159292" style="48"/>
+    <col min="21" max="21" width="9.3716814159292" style="48"/>
+    <col min="22" max="22" width="10.3716814159292" style="48"/>
     <col min="23" max="23" width="9.02654867256637" customWidth="1"/>
     <col min="24" max="24" width="10.3716814159292"/>
     <col min="25" max="27" width="10.0265486725664"/>
     <col min="28" max="29" width="11.1504424778761"/>
     <col min="30" max="30" width="9.53097345132743"/>
     <col min="31" max="35" width="10.0265486725664"/>
-    <col min="36" max="36" width="9.02654867256637" style="45"/>
+    <col min="36" max="36" width="9.02654867256637" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
     </row>
-    <row r="2" s="38" customFormat="1" ht="27" customHeight="1" spans="1:35">
-      <c r="A2" s="50" t="s">
+    <row r="2" s="39" customFormat="1" ht="27" customHeight="1" spans="1:35">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="52" t="s">
+      <c r="T2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="52" t="s">
+      <c r="U2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="52" t="s">
+      <c r="V2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="51" t="s">
+      <c r="W2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="71" t="s">
+      <c r="X2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="71" t="s">
+      <c r="Y2" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="71" t="s">
+      <c r="Z2" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="71" t="s">
+      <c r="AA2" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="71" t="s">
+      <c r="AB2" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="71" t="s">
+      <c r="AC2" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="71" t="s">
+      <c r="AD2" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="71" t="s">
+      <c r="AE2" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="71" t="s">
+      <c r="AF2" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="71" t="s">
+      <c r="AG2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="71" t="s">
+      <c r="AH2" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="71" t="s">
+      <c r="AI2" s="85" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" s="39" customFormat="1" spans="1:36">
-      <c r="A3" s="53" t="s">
+    <row r="3" s="40" customFormat="1" spans="1:36">
+      <c r="A3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="56">
         <v>6967.46</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="56">
         <v>0.775027</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="56">
         <v>0.486152</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="57">
         <v>0.584976</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="56">
         <v>0.519644</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="56">
         <v>0.246597</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="56">
         <v>0.247456</v>
       </c>
-      <c r="J3" s="54">
+      <c r="J3" s="56">
         <v>0.237989</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="56">
         <v>0.241448</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="56">
         <v>0.234368</v>
       </c>
-      <c r="M3" s="54">
+      <c r="M3" s="56">
         <v>0.109731</v>
       </c>
-      <c r="N3" s="54">
+      <c r="N3" s="56">
         <v>0.141392</v>
       </c>
-      <c r="O3" s="54">
+      <c r="O3" s="56">
         <v>0.119915</v>
       </c>
-      <c r="P3" s="54">
+      <c r="P3" s="56">
         <v>0.241071</v>
       </c>
-      <c r="Q3" s="54">
+      <c r="Q3" s="56">
         <v>0.123963</v>
       </c>
-      <c r="R3" s="54">
+      <c r="R3" s="56">
         <v>0.154569</v>
       </c>
-      <c r="S3" s="54">
+      <c r="S3" s="56">
         <v>0.13373</v>
       </c>
-      <c r="T3" s="54">
+      <c r="T3" s="56">
         <v>0.037083</v>
       </c>
-      <c r="U3" s="54">
+      <c r="U3" s="56">
         <v>0.040625</v>
       </c>
-      <c r="V3" s="54">
+      <c r="V3" s="56">
         <v>0.037</v>
       </c>
-      <c r="W3" s="54">
+      <c r="W3" s="56">
         <v>0.038406</v>
       </c>
-      <c r="X3" s="58">
+      <c r="X3" s="61">
         <v>7.065</v>
       </c>
-      <c r="Y3" s="58">
+      <c r="Y3" s="61">
         <v>9.43</v>
       </c>
-      <c r="Z3" s="58">
+      <c r="Z3" s="61">
         <v>15.4</v>
       </c>
-      <c r="AA3" s="58">
+      <c r="AA3" s="61">
         <v>5.6</v>
       </c>
-      <c r="AB3" s="58">
+      <c r="AB3" s="61">
         <v>25.205</v>
       </c>
-      <c r="AC3" s="58">
+      <c r="AC3" s="61">
         <v>23.6</v>
       </c>
-      <c r="AD3" s="58">
+      <c r="AD3" s="61">
         <v>1.935</v>
       </c>
-      <c r="AE3" s="58">
+      <c r="AE3" s="61">
         <v>7.795</v>
       </c>
-      <c r="AF3" s="58">
+      <c r="AF3" s="61">
         <v>15.8</v>
       </c>
-      <c r="AG3" s="58">
+      <c r="AG3" s="61">
         <v>0.085</v>
       </c>
-      <c r="AH3" s="58">
+      <c r="AH3" s="61">
         <v>0.69</v>
       </c>
-      <c r="AI3" s="58">
+      <c r="AI3" s="61">
         <v>3.1</v>
       </c>
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:35">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59">
         <v>9033.1278</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="59">
         <v>0.7735</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="59">
         <v>0.6007</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="60">
         <v>0.6653</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="60">
         <v>0.6228</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="60">
         <v>0.3276</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="60">
         <v>0.2785</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="60">
         <v>0.2906</v>
       </c>
-      <c r="K4" s="56">
+      <c r="K4" s="60">
         <v>0.2809</v>
       </c>
-      <c r="L4" s="56">
+      <c r="L4" s="59">
         <v>0.2736</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="59">
         <v>0.224</v>
       </c>
-      <c r="N4" s="56">
+      <c r="N4" s="59">
         <v>0.2389</v>
       </c>
-      <c r="O4" s="56">
+      <c r="O4" s="59">
         <v>0.228</v>
       </c>
-      <c r="P4" s="56">
+      <c r="P4" s="59">
         <v>0.2725</v>
       </c>
-      <c r="Q4" s="56">
+      <c r="Q4" s="60">
         <v>0.2323</v>
       </c>
-      <c r="R4" s="56">
+      <c r="R4" s="60">
         <v>0.2422</v>
       </c>
-      <c r="S4" s="56">
+      <c r="S4" s="60">
         <v>0.2342</v>
       </c>
-      <c r="T4" s="56">
+      <c r="T4" s="60">
         <v>0.1739</v>
       </c>
-      <c r="U4" s="56">
+      <c r="U4" s="60">
         <v>0.1347</v>
       </c>
-      <c r="V4" s="56">
+      <c r="V4" s="60">
         <v>0.1426</v>
       </c>
-      <c r="W4" s="56">
+      <c r="W4" s="60">
         <v>0.1367</v>
       </c>
-      <c r="X4" s="56">
+      <c r="X4" s="59">
         <v>8.9111</v>
       </c>
-      <c r="Y4" s="56">
+      <c r="Y4" s="59">
         <v>11.8278</v>
       </c>
-      <c r="Z4" s="56">
+      <c r="Z4" s="59">
         <v>15.6667</v>
       </c>
-      <c r="AA4" s="56">
+      <c r="AA4" s="59">
         <v>6.6889</v>
       </c>
-      <c r="AB4" s="56">
+      <c r="AB4" s="59">
         <v>22.1278</v>
       </c>
-      <c r="AC4" s="56">
+      <c r="AC4" s="59">
         <v>25.6667</v>
       </c>
-      <c r="AD4" s="56">
+      <c r="AD4" s="59">
         <v>3.4778</v>
       </c>
-      <c r="AE4" s="56">
+      <c r="AE4" s="59">
         <v>13.7611</v>
       </c>
-      <c r="AF4" s="56">
+      <c r="AF4" s="59">
         <v>16.1111</v>
       </c>
-      <c r="AG4" s="56">
+      <c r="AG4" s="59">
         <v>0.4889</v>
       </c>
-      <c r="AH4" s="56">
+      <c r="AH4" s="59">
         <v>1.7667</v>
       </c>
-      <c r="AI4" s="56">
+      <c r="AI4" s="59">
         <v>2.8889</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:35">
-      <c r="A5" s="57" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:36">
+      <c r="A5" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="61">
         <v>13387.56</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="61">
         <v>0.685089</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="61">
         <v>0.422804</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="61">
         <v>0.501468</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="61">
         <v>0.44782</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="61">
         <v>0.189136</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="61">
         <v>0.1452</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="61">
         <v>0.158207</v>
       </c>
-      <c r="K5" s="56">
+      <c r="K5" s="61">
         <v>0.149172</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="61">
         <v>0.259184</v>
       </c>
-      <c r="M5" s="56">
+      <c r="M5" s="61">
         <v>0.127287</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="61">
         <v>0.161405</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O5" s="61">
         <v>0.138014</v>
       </c>
-      <c r="P5" s="56">
+      <c r="P5" s="61">
         <v>0.25058</v>
       </c>
-      <c r="Q5" s="56">
+      <c r="Q5" s="61">
         <v>0.135874</v>
       </c>
-      <c r="R5" s="56">
+      <c r="R5" s="61">
         <v>0.166036</v>
       </c>
-      <c r="S5" s="56">
+      <c r="S5" s="61">
         <v>0.145242</v>
       </c>
-      <c r="T5" s="56">
+      <c r="T5" s="61">
         <v>0.061667</v>
       </c>
-      <c r="U5" s="56">
+      <c r="U5" s="61">
         <v>0.04625</v>
       </c>
-      <c r="V5" s="56">
+      <c r="V5" s="61">
         <v>0.051905</v>
       </c>
-      <c r="W5" s="56">
+      <c r="W5" s="61">
         <v>0.048216</v>
       </c>
-      <c r="X5" s="56">
+      <c r="X5" s="61">
         <v>6.155</v>
       </c>
-      <c r="Y5" s="56">
+      <c r="Y5" s="61">
         <v>9.79</v>
       </c>
-      <c r="Z5" s="56">
+      <c r="Z5" s="61">
         <v>15.4</v>
       </c>
-      <c r="AA5" s="56">
+      <c r="AA5" s="61">
         <v>3.36</v>
       </c>
-      <c r="AB5" s="56">
+      <c r="AB5" s="61">
         <v>19.38</v>
       </c>
-      <c r="AC5" s="56">
+      <c r="AC5" s="61">
         <v>24.8</v>
       </c>
-      <c r="AD5" s="56">
+      <c r="AD5" s="61">
         <v>2.13</v>
       </c>
-      <c r="AE5" s="56">
+      <c r="AE5" s="61">
         <v>8.525</v>
       </c>
-      <c r="AF5" s="56">
+      <c r="AF5" s="61">
         <v>15.8</v>
       </c>
-      <c r="AG5" s="56">
+      <c r="AG5" s="61">
         <v>0.165</v>
       </c>
-      <c r="AH5" s="56">
+      <c r="AH5" s="61">
         <v>0.525</v>
       </c>
-      <c r="AI5" s="56">
+      <c r="AI5" s="61">
         <v>3.1</v>
       </c>
+      <c r="AJ5" s="87"/>
     </row>
-    <row r="6" s="40" customFormat="1" spans="1:36">
-      <c r="A6" s="58" t="s">
+    <row r="6" s="41" customFormat="1" spans="1:36">
+      <c r="A6" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="61">
         <v>1013.68</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="62">
         <v>0.82304</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="61">
         <v>0.43731</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="61">
         <v>0.55986</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="61">
         <v>0.47811</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="61">
         <v>0.23773</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="61">
         <v>0.19294</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="61">
         <v>0.20411</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="61">
         <v>0.19594</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="61">
         <v>0.18088</v>
       </c>
-      <c r="M6" s="58">
+      <c r="M6" s="61">
         <v>0.06758</v>
       </c>
-      <c r="N6" s="58">
+      <c r="N6" s="61">
         <v>0.09292</v>
       </c>
-      <c r="O6" s="58">
+      <c r="O6" s="61">
         <v>0.07552</v>
       </c>
-      <c r="P6" s="58">
+      <c r="P6" s="61">
         <v>0.19564</v>
       </c>
-      <c r="Q6" s="58">
+      <c r="Q6" s="61">
         <v>0.07638</v>
       </c>
-      <c r="R6" s="58">
+      <c r="R6" s="61">
         <v>0.10341</v>
       </c>
-      <c r="S6" s="58">
+      <c r="S6" s="61">
         <v>0.08484</v>
       </c>
-      <c r="T6" s="58">
+      <c r="T6" s="61">
         <v>0.01142</v>
       </c>
-      <c r="U6" s="58">
+      <c r="U6" s="61">
         <v>0.00875</v>
       </c>
-      <c r="V6" s="58">
+      <c r="V6" s="61">
         <v>0.00921</v>
       </c>
-      <c r="W6" s="58">
+      <c r="W6" s="61">
         <v>0.00875</v>
       </c>
-      <c r="X6" s="58">
+      <c r="X6" s="61">
         <v>6.445</v>
       </c>
-      <c r="Y6" s="58">
+      <c r="Y6" s="61">
         <v>7.98</v>
       </c>
-      <c r="Z6" s="58">
+      <c r="Z6" s="61">
         <v>15.4</v>
       </c>
-      <c r="AA6" s="58">
+      <c r="AA6" s="61">
         <v>4.625</v>
       </c>
-      <c r="AB6" s="58">
+      <c r="AB6" s="61">
         <v>20.84</v>
       </c>
-      <c r="AC6" s="58">
+      <c r="AC6" s="61">
         <v>23.6</v>
       </c>
-      <c r="AD6" s="58">
+      <c r="AD6" s="61">
         <v>1.245</v>
       </c>
-      <c r="AE6" s="58">
+      <c r="AE6" s="61">
         <v>5.825</v>
       </c>
-      <c r="AF6" s="58">
+      <c r="AF6" s="61">
         <v>15.8</v>
       </c>
-      <c r="AG6" s="58">
+      <c r="AG6" s="61">
         <v>0.03</v>
       </c>
-      <c r="AH6" s="58">
+      <c r="AH6" s="61">
         <v>1.045</v>
       </c>
-      <c r="AI6" s="58">
+      <c r="AI6" s="61">
         <v>3.1</v>
       </c>
       <c r="AJ6" s="3"/>
     </row>
-    <row r="7" s="41" customFormat="1" spans="1:36">
-      <c r="A7" s="56" t="s">
+    <row r="7" s="42" customFormat="1" spans="1:36">
+      <c r="A7" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="58">
-        <v>1166.13333333333</v>
-      </c>
-      <c r="D7" s="58">
-        <v>0.789230888888889</v>
-      </c>
-      <c r="E7" s="58">
-        <v>0.584049555555555</v>
-      </c>
-      <c r="F7" s="55">
-        <v>0.663605111111111</v>
-      </c>
-      <c r="G7" s="58">
-        <v>0.612255111111111</v>
-      </c>
-      <c r="H7" s="58">
-        <v>0.260871</v>
-      </c>
-      <c r="I7" s="58">
-        <v>0.255256333333333</v>
-      </c>
-      <c r="J7" s="58">
-        <v>0.252300222222222</v>
-      </c>
-      <c r="K7" s="58">
-        <v>0.253118444444444</v>
-      </c>
-      <c r="L7" s="58">
-        <v>0.308385777777778</v>
-      </c>
-      <c r="M7" s="58">
-        <v>0.220050888888889</v>
-      </c>
-      <c r="N7" s="58">
-        <v>0.248501888888889</v>
-      </c>
-      <c r="O7" s="58">
-        <v>0.229298444444444</v>
-      </c>
-      <c r="P7" s="58">
-        <v>0.304904333333333</v>
-      </c>
-      <c r="Q7" s="58">
-        <v>0.242922222222222</v>
-      </c>
-      <c r="R7" s="58">
-        <v>0.260572444444444</v>
-      </c>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
+      <c r="B7" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="61">
+        <v>1166.1333</v>
+      </c>
+      <c r="D7" s="61">
+        <v>0.7892</v>
+      </c>
+      <c r="E7" s="63">
+        <v>0.584</v>
+      </c>
+      <c r="F7" s="57">
+        <v>0.6636</v>
+      </c>
+      <c r="G7" s="61">
+        <v>0.6123</v>
+      </c>
+      <c r="H7" s="61">
+        <v>0.2609</v>
+      </c>
+      <c r="I7" s="61">
+        <v>0.2553</v>
+      </c>
+      <c r="J7" s="61">
+        <v>0.2523</v>
+      </c>
+      <c r="K7" s="61">
+        <v>0.2531</v>
+      </c>
+      <c r="L7" s="61">
+        <v>0.3084</v>
+      </c>
+      <c r="M7" s="61">
+        <v>0.2201</v>
+      </c>
+      <c r="N7" s="61">
+        <v>0.2485</v>
+      </c>
+      <c r="O7" s="61">
+        <v>0.2293</v>
+      </c>
+      <c r="P7" s="61">
+        <v>0.3049</v>
+      </c>
+      <c r="Q7" s="61">
+        <v>0.2429</v>
+      </c>
+      <c r="R7" s="61">
+        <v>0.2606</v>
+      </c>
+      <c r="S7" s="59">
+        <v>0.2477</v>
+      </c>
+      <c r="T7" s="59">
+        <v>0.0667</v>
+      </c>
+      <c r="U7" s="59">
+        <v>0.0521</v>
+      </c>
+      <c r="V7" s="59">
+        <v>0.0579</v>
+      </c>
+      <c r="W7" s="59">
+        <v>0.0542</v>
+      </c>
+      <c r="X7" s="59">
+        <v>8.7611</v>
+      </c>
+      <c r="Y7" s="59">
+        <v>11.2389</v>
+      </c>
+      <c r="Z7" s="59">
+        <v>15.6667</v>
+      </c>
+      <c r="AA7" s="59">
+        <v>5.8</v>
+      </c>
+      <c r="AB7" s="59">
+        <v>23.5889</v>
+      </c>
+      <c r="AC7" s="59">
+        <v>24.7778</v>
+      </c>
+      <c r="AD7" s="59">
+        <v>3.8278</v>
+      </c>
+      <c r="AE7" s="59">
+        <v>13.6722</v>
+      </c>
+      <c r="AF7" s="59">
+        <v>16.1111</v>
+      </c>
+      <c r="AG7" s="59">
+        <v>0.2</v>
+      </c>
+      <c r="AH7" s="59">
+        <v>0.4722</v>
+      </c>
+      <c r="AI7" s="59">
+        <v>2.8889</v>
+      </c>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" s="42" customFormat="1" spans="1:36">
-      <c r="A8" s="59" t="s">
+    <row r="8" s="43" customFormat="1" spans="1:36">
+      <c r="A8" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="56">
+        <v>1259.79</v>
+      </c>
+      <c r="D8" s="64">
+        <v>0.7674</v>
+      </c>
+      <c r="E8" s="64">
+        <v>0.5493</v>
+      </c>
+      <c r="F8" s="64">
+        <v>0.6298</v>
+      </c>
+      <c r="G8" s="64">
+        <v>0.5773</v>
+      </c>
+      <c r="H8" s="64">
+        <v>0.2854</v>
+      </c>
+      <c r="I8" s="64">
+        <v>0.2496</v>
+      </c>
+      <c r="J8" s="64">
+        <v>0.2601</v>
+      </c>
+      <c r="K8" s="64">
+        <v>0.2527</v>
+      </c>
+      <c r="L8" s="64">
+        <v>0.3047</v>
+      </c>
+      <c r="M8" s="64">
+        <v>0.1909</v>
+      </c>
+      <c r="N8" s="64">
+        <v>0.2251</v>
+      </c>
+      <c r="O8" s="64">
+        <v>0.2022</v>
+      </c>
+      <c r="P8" s="64">
+        <v>0.3047</v>
+      </c>
+      <c r="Q8" s="64">
+        <v>0.2139</v>
+      </c>
+      <c r="R8" s="64">
+        <v>0.2412</v>
+      </c>
+      <c r="S8" s="64">
+        <v>0.2228</v>
+      </c>
+      <c r="T8" s="64">
+        <v>0</v>
+      </c>
+      <c r="U8" s="64">
+        <v>0</v>
+      </c>
+      <c r="V8" s="64">
+        <v>0</v>
+      </c>
+      <c r="W8" s="56">
+        <v>0</v>
+      </c>
+      <c r="X8" s="56">
+        <v>7.985</v>
+      </c>
+      <c r="Y8" s="56">
+        <v>10.615</v>
+      </c>
+      <c r="Z8" s="56">
+        <v>15.4</v>
+      </c>
+      <c r="AA8" s="56">
+        <v>5.365</v>
+      </c>
+      <c r="AB8" s="56">
+        <v>21.095</v>
+      </c>
+      <c r="AC8" s="56">
+        <v>23.6</v>
+      </c>
+      <c r="AD8" s="56">
+        <v>3.195</v>
+      </c>
+      <c r="AE8" s="56">
+        <v>11.245</v>
+      </c>
+      <c r="AF8" s="56">
+        <v>15.8</v>
+      </c>
+      <c r="AG8" s="56">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="56">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="56">
+        <v>3.1</v>
+      </c>
+      <c r="AJ8" s="88"/>
+    </row>
+    <row r="9" s="41" customFormat="1" spans="1:36">
+      <c r="A9" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B9" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="60">
-        <v>1259.79</v>
-      </c>
-      <c r="D8" s="61">
-        <v>0.7674</v>
-      </c>
-      <c r="E8" s="61">
-        <v>0.5493</v>
-      </c>
-      <c r="F8" s="61">
-        <v>0.6298</v>
-      </c>
-      <c r="G8" s="61">
-        <v>0.5773</v>
-      </c>
-      <c r="H8" s="61">
-        <v>0.2854</v>
-      </c>
-      <c r="I8" s="61">
-        <v>0.2496</v>
-      </c>
-      <c r="J8" s="61">
-        <v>0.2601</v>
-      </c>
-      <c r="K8" s="61">
-        <v>0.2527</v>
-      </c>
-      <c r="L8" s="61">
-        <v>0.3047</v>
-      </c>
-      <c r="M8" s="61">
-        <v>0.1909</v>
-      </c>
-      <c r="N8" s="61">
-        <v>0.2251</v>
-      </c>
-      <c r="O8" s="61">
-        <v>0.2022</v>
-      </c>
-      <c r="P8" s="61">
-        <v>0.3047</v>
-      </c>
-      <c r="Q8" s="61">
-        <v>0.2139</v>
-      </c>
-      <c r="R8" s="61">
-        <v>0.2412</v>
-      </c>
-      <c r="S8" s="61">
-        <v>0.2228</v>
-      </c>
-      <c r="T8" s="61">
-        <v>0</v>
-      </c>
-      <c r="U8" s="61">
-        <v>0</v>
-      </c>
-      <c r="V8" s="61">
-        <v>0</v>
-      </c>
-      <c r="W8" s="60">
-        <v>0</v>
-      </c>
-      <c r="X8" s="60">
-        <v>7.985</v>
-      </c>
-      <c r="Y8" s="60">
-        <v>10.615</v>
-      </c>
-      <c r="Z8" s="60">
+      <c r="C9" s="56">
+        <v>1789.59</v>
+      </c>
+      <c r="D9" s="64">
+        <v>0.7885</v>
+      </c>
+      <c r="E9" s="64">
+        <v>0.5333</v>
+      </c>
+      <c r="F9" s="64">
+        <v>0.6139</v>
+      </c>
+      <c r="G9" s="64">
+        <v>0.5599</v>
+      </c>
+      <c r="H9" s="64">
+        <v>0.3071</v>
+      </c>
+      <c r="I9" s="64">
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="64">
+        <v>0.2628</v>
+      </c>
+      <c r="K9" s="64">
+        <v>0.2531</v>
+      </c>
+      <c r="L9" s="64">
+        <v>0.3055</v>
+      </c>
+      <c r="M9" s="64">
+        <v>0.183</v>
+      </c>
+      <c r="N9" s="64">
+        <v>0.2191</v>
+      </c>
+      <c r="O9" s="64">
+        <v>0.195</v>
+      </c>
+      <c r="P9" s="82">
+        <v>0.3061</v>
+      </c>
+      <c r="Q9" s="64">
+        <v>0.2008</v>
+      </c>
+      <c r="R9" s="64">
+        <v>0.232</v>
+      </c>
+      <c r="S9" s="64">
+        <v>0.2109</v>
+      </c>
+      <c r="T9" s="64">
+        <v>0.1192</v>
+      </c>
+      <c r="U9" s="64">
+        <v>0.0813</v>
+      </c>
+      <c r="V9" s="64">
+        <v>0.093</v>
+      </c>
+      <c r="W9" s="56">
+        <v>0.0852</v>
+      </c>
+      <c r="X9" s="61">
+        <v>7.845</v>
+      </c>
+      <c r="Y9" s="61">
+        <v>10.315</v>
+      </c>
+      <c r="Z9" s="61">
         <v>15.4</v>
       </c>
-      <c r="AA8" s="60">
-        <v>5.365</v>
-      </c>
-      <c r="AB8" s="60">
-        <v>21.095</v>
-      </c>
-      <c r="AC8" s="60">
+      <c r="AA9" s="61">
+        <v>5.5</v>
+      </c>
+      <c r="AB9" s="61">
+        <v>19.735</v>
+      </c>
+      <c r="AC9" s="61">
         <v>23.6</v>
       </c>
-      <c r="AD8" s="60">
-        <v>3.195</v>
-      </c>
-      <c r="AE8" s="60">
-        <v>11.245</v>
-      </c>
-      <c r="AF8" s="60">
+      <c r="AD9" s="61">
+        <v>2.98</v>
+      </c>
+      <c r="AE9" s="61">
+        <v>8.63</v>
+      </c>
+      <c r="AF9" s="61">
         <v>15.8</v>
       </c>
-      <c r="AG8" s="60">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="60">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="60">
-        <v>3.1</v>
-      </c>
-      <c r="AJ8" s="73"/>
-    </row>
-    <row r="9" s="40" customFormat="1" spans="1:36">
-      <c r="A9" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="54">
-        <v>1789.59</v>
-      </c>
-      <c r="D9" s="62">
-        <v>0.7885</v>
-      </c>
-      <c r="E9" s="62">
-        <v>0.5333</v>
-      </c>
-      <c r="F9" s="62">
-        <v>0.6139</v>
-      </c>
-      <c r="G9" s="62">
-        <v>0.5599</v>
-      </c>
-      <c r="H9" s="62">
-        <v>0.3071</v>
-      </c>
-      <c r="I9" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="J9" s="62">
-        <v>0.2628</v>
-      </c>
-      <c r="K9" s="62">
-        <v>0.2531</v>
-      </c>
-      <c r="L9" s="62">
-        <v>0.3055</v>
-      </c>
-      <c r="M9" s="62">
-        <v>0.183</v>
-      </c>
-      <c r="N9" s="62">
-        <v>0.2191</v>
-      </c>
-      <c r="O9" s="62">
-        <v>0.195</v>
-      </c>
-      <c r="P9" s="62">
-        <v>0.3061</v>
-      </c>
-      <c r="Q9" s="62">
-        <v>0.2008</v>
-      </c>
-      <c r="R9" s="62">
-        <v>0.232</v>
-      </c>
-      <c r="S9" s="62">
-        <v>0.2109</v>
-      </c>
-      <c r="T9" s="62">
-        <v>0.1192</v>
-      </c>
-      <c r="U9" s="62">
-        <v>0.0813</v>
-      </c>
-      <c r="V9" s="62">
-        <v>0.093</v>
-      </c>
-      <c r="W9" s="54">
-        <v>0.0852</v>
-      </c>
-      <c r="X9" s="58">
-        <v>7.845</v>
-      </c>
-      <c r="Y9" s="58">
-        <v>10.315</v>
-      </c>
-      <c r="Z9" s="58">
-        <v>15.4</v>
-      </c>
-      <c r="AA9" s="58">
-        <v>5.5</v>
-      </c>
-      <c r="AB9" s="58">
-        <v>19.735</v>
-      </c>
-      <c r="AC9" s="58">
-        <v>23.6</v>
-      </c>
-      <c r="AD9" s="58">
-        <v>2.98</v>
-      </c>
-      <c r="AE9" s="58">
-        <v>8.63</v>
-      </c>
-      <c r="AF9" s="58">
-        <v>15.8</v>
-      </c>
-      <c r="AG9" s="58">
+      <c r="AG9" s="61">
         <v>0.405</v>
       </c>
-      <c r="AH9" s="58">
+      <c r="AH9" s="61">
         <v>0.63</v>
       </c>
-      <c r="AI9" s="58">
+      <c r="AI9" s="61">
         <v>3.1</v>
       </c>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="3:24">
-      <c r="C10" s="63"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
+    <row r="10" spans="1:24">
+      <c r="A10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:35">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="65" t="s">
+      <c r="C13" s="58"/>
+      <c r="D13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="I13" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="65" t="s">
+      <c r="K13" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="65" t="s">
+      <c r="L13" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="65" t="s">
+      <c r="M13" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="65" t="s">
+      <c r="N13" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="65" t="s">
+      <c r="O13" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="P13" s="65" t="s">
+      <c r="P13" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="65" t="s">
+      <c r="Q13" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="65" t="s">
+      <c r="R13" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="S13" s="65" t="s">
+      <c r="S13" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="65" t="s">
+      <c r="T13" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="65" t="s">
+      <c r="U13" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="V13" s="65" t="s">
+      <c r="V13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="W13" s="66" t="s">
+      <c r="W13" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="X13" s="66" t="s">
+      <c r="X13" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="Y13" s="56" t="s">
+      <c r="Y13" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="Z13" s="56" t="s">
+      <c r="Z13" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="AA13" s="56" t="s">
+      <c r="AA13" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="AB13" s="56" t="s">
+      <c r="AB13" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="AC13" s="56" t="s">
+      <c r="AC13" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AD13" s="56" t="s">
+      <c r="AD13" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AE13" s="56" t="s">
+      <c r="AE13" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="AF13" s="56" t="s">
+      <c r="AF13" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AG13" s="56" t="s">
+      <c r="AG13" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="AH13" s="56" t="s">
+      <c r="AH13" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="AI13" s="56" t="s">
+      <c r="AI13" s="72" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" s="43" customFormat="1" spans="1:36">
-      <c r="A14" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="60" t="s">
+    <row r="14" s="44" customFormat="1" spans="1:36">
+      <c r="A14" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="74">
         <v>5756.545</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="62">
         <v>0.6859</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="74">
         <v>0.6305</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="74">
         <v>0.6369</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="74">
         <v>0.6203</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="74">
         <v>0.3988</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="74">
         <v>0.4</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="74">
         <v>0.3829</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="74">
         <v>0.3895</v>
       </c>
-      <c r="L14" s="60">
+      <c r="L14" s="74">
         <v>0.3355</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="74">
         <v>0.2944</v>
       </c>
-      <c r="N14" s="60">
+      <c r="N14" s="74">
         <v>0.2888</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="74">
         <v>0.2873</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="74">
         <v>0.3327</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="74">
         <v>0.3326</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="74">
         <v>0.3001</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="74">
         <v>0.3112</v>
       </c>
-      <c r="T14" s="55">
+      <c r="T14" s="74">
         <v>0.1168</v>
       </c>
-      <c r="U14" s="55">
+      <c r="U14" s="74">
         <v>0.1192</v>
       </c>
-      <c r="V14" s="55">
+      <c r="V14" s="74">
         <v>0.11</v>
       </c>
-      <c r="W14" s="60">
+      <c r="W14" s="74">
         <v>0.1123</v>
       </c>
-      <c r="X14" s="60">
+      <c r="X14" s="74">
         <v>6.06</v>
       </c>
-      <c r="Y14" s="60">
+      <c r="Y14" s="74">
         <v>10.345</v>
       </c>
-      <c r="Z14" s="60">
+      <c r="Z14" s="74">
         <v>9.8</v>
       </c>
-      <c r="AA14" s="60">
+      <c r="AA14" s="74">
         <v>10.04</v>
       </c>
-      <c r="AB14" s="60">
+      <c r="AB14" s="74">
         <v>24.81</v>
       </c>
-      <c r="AC14" s="60">
+      <c r="AC14" s="74">
         <v>21.5</v>
       </c>
-      <c r="AD14" s="60">
+      <c r="AD14" s="74">
         <v>2.01</v>
       </c>
-      <c r="AE14" s="60">
+      <c r="AE14" s="74">
         <v>8.61</v>
       </c>
-      <c r="AF14" s="60">
+      <c r="AF14" s="74">
         <v>8.3</v>
       </c>
-      <c r="AG14" s="60">
+      <c r="AG14" s="74">
         <v>0.27</v>
       </c>
-      <c r="AH14" s="60">
+      <c r="AH14" s="74">
         <v>1.2</v>
       </c>
-      <c r="AI14" s="60">
+      <c r="AI14" s="74">
         <v>1.1</v>
       </c>
-      <c r="AJ14" s="73"/>
+      <c r="AJ14" s="88"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:35">
-      <c r="A15" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="58" t="s">
+      <c r="A15" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="76">
         <v>9562.815</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="76">
         <v>0.616612</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="63">
         <v>0.7204572</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="63">
         <v>0.642623</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="63">
         <v>0.6775106</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="63">
         <v>0.4195993</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="63">
         <v>0.4265636</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="63">
         <v>0.4073568</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="63">
         <v>0.4154876</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="76">
         <v>0.2493146</v>
       </c>
-      <c r="M15" s="58">
+      <c r="M15" s="76">
         <v>0.3721744</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="76">
         <v>0.2748879</v>
       </c>
-      <c r="O15" s="58">
+      <c r="O15" s="76">
         <v>0.3135667</v>
       </c>
-      <c r="P15" s="58">
+      <c r="P15" s="76">
         <v>0.2560679</v>
       </c>
-      <c r="Q15" s="58">
+      <c r="Q15" s="63">
         <v>0.3888442</v>
       </c>
-      <c r="R15" s="58">
+      <c r="R15" s="63">
         <v>0.2796773</v>
       </c>
-      <c r="S15" s="58">
+      <c r="S15" s="63">
         <v>0.3225149</v>
       </c>
-      <c r="T15" s="58">
+      <c r="T15" s="63">
         <v>0.1676449</v>
       </c>
-      <c r="U15" s="58">
+      <c r="U15" s="63">
         <v>0.2225</v>
       </c>
-      <c r="V15" s="58">
+      <c r="V15" s="63">
         <v>0.1768707</v>
       </c>
-      <c r="W15" s="58">
+      <c r="W15" s="63">
         <v>0.1928773</v>
       </c>
-      <c r="X15" s="58">
+      <c r="X15" s="76">
         <v>6.945</v>
       </c>
-      <c r="Y15" s="58">
+      <c r="Y15" s="76">
         <v>11.94</v>
       </c>
-      <c r="Z15" s="58">
+      <c r="Z15" s="76">
         <v>9.8</v>
       </c>
-      <c r="AA15" s="58">
+      <c r="AA15" s="76">
         <v>10.17</v>
       </c>
-      <c r="AB15" s="58">
+      <c r="AB15" s="76">
         <v>22.535</v>
       </c>
-      <c r="AC15" s="58">
+      <c r="AC15" s="76">
         <v>21.5</v>
       </c>
-      <c r="AD15" s="58">
+      <c r="AD15" s="76">
         <v>2.69</v>
       </c>
-      <c r="AE15" s="58">
+      <c r="AE15" s="76">
         <v>11.055</v>
       </c>
-      <c r="AF15" s="58">
+      <c r="AF15" s="76">
         <v>8.3</v>
       </c>
-      <c r="AG15" s="58">
+      <c r="AG15" s="76">
         <v>0.515</v>
       </c>
-      <c r="AH15" s="58">
+      <c r="AH15" s="76">
         <v>2.575</v>
       </c>
-      <c r="AI15" s="58">
+      <c r="AI15" s="76">
         <v>1.1</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:35">
-      <c r="A16" s="57" t="s">
+    <row r="16" s="3" customFormat="1" spans="1:36">
+      <c r="A16" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="76">
         <v>14686.17</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="76">
         <v>0.523423</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="76">
         <v>0.539587</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="76">
         <v>0.4935</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="76">
         <v>0.504884</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="76">
         <v>0.301771</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="76">
         <v>0.252962</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="76">
         <v>0.256321</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="76">
         <v>0.250332</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="76">
         <v>0.261684</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="76">
         <v>0.220051</v>
       </c>
-      <c r="N16" s="56">
+      <c r="N16" s="76">
         <v>0.216656</v>
       </c>
-      <c r="O16" s="56">
+      <c r="O16" s="76">
         <v>0.212945</v>
       </c>
-      <c r="P16" s="56">
+      <c r="P16" s="63">
         <v>0.269327</v>
       </c>
-      <c r="Q16" s="56">
+      <c r="Q16" s="76">
         <v>0.252198</v>
       </c>
-      <c r="R16" s="56">
+      <c r="R16" s="76">
         <v>0.227647</v>
       </c>
-      <c r="S16" s="56">
+      <c r="S16" s="76">
         <v>0.232687</v>
       </c>
-      <c r="T16" s="56">
+      <c r="T16" s="76">
         <v>0.051</v>
       </c>
-      <c r="U16" s="56">
+      <c r="U16" s="76">
         <v>0.055</v>
       </c>
-      <c r="V16" s="56">
+      <c r="V16" s="76">
         <v>0.049833</v>
       </c>
-      <c r="W16" s="56">
+      <c r="W16" s="76">
         <v>0.05145</v>
       </c>
-      <c r="X16" s="56">
+      <c r="X16" s="76">
         <v>5.15</v>
       </c>
-      <c r="Y16" s="56">
+      <c r="Y16" s="76">
         <v>12.1</v>
       </c>
-      <c r="Z16" s="56">
+      <c r="Z16" s="76">
         <v>9.8</v>
       </c>
-      <c r="AA16" s="56">
+      <c r="AA16" s="76">
         <v>6.02</v>
       </c>
-      <c r="AB16" s="56">
+      <c r="AB16" s="76">
         <v>20.595</v>
       </c>
-      <c r="AC16" s="56">
+      <c r="AC16" s="76">
         <v>21.5</v>
       </c>
-      <c r="AD16" s="56">
+      <c r="AD16" s="76">
         <v>1.85</v>
       </c>
-      <c r="AE16" s="56">
+      <c r="AE16" s="76">
         <v>8.23</v>
       </c>
-      <c r="AF16" s="56">
+      <c r="AF16" s="76">
         <v>8.3</v>
       </c>
-      <c r="AG16" s="56">
+      <c r="AG16" s="76">
         <v>0.125</v>
       </c>
-      <c r="AH16" s="56">
+      <c r="AH16" s="76">
         <v>1.08</v>
       </c>
-      <c r="AI16" s="56">
+      <c r="AI16" s="76">
         <v>1.1</v>
       </c>
+      <c r="AJ16" s="87"/>
     </row>
-    <row r="17" s="42" customFormat="1" spans="1:36">
-      <c r="A17" s="59" t="s">
+    <row r="17" s="43" customFormat="1" spans="1:36">
+      <c r="A17" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="72">
         <v>1049.67</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="77">
         <v>0.621816</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="77">
         <v>0.509639</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="77">
         <v>0.534366</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="77">
         <v>0.512703</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="77">
         <v>0.354886</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17" s="77">
         <v>0.2839</v>
       </c>
-      <c r="J17" s="61">
+      <c r="J17" s="77">
         <v>0.291061</v>
       </c>
-      <c r="K17" s="61">
+      <c r="K17" s="77">
         <v>0.283764</v>
       </c>
-      <c r="L17" s="61">
+      <c r="L17" s="77">
         <v>0.220794</v>
       </c>
-      <c r="M17" s="61">
+      <c r="M17" s="77">
         <v>0.123856</v>
       </c>
-      <c r="N17" s="61">
+      <c r="N17" s="77">
         <v>0.144913</v>
       </c>
-      <c r="O17" s="61">
+      <c r="O17" s="77">
         <v>0.129826</v>
       </c>
-      <c r="P17" s="61">
+      <c r="P17" s="77">
         <v>0.242572</v>
       </c>
-      <c r="Q17" s="61">
+      <c r="Q17" s="77">
         <v>0.133817</v>
       </c>
-      <c r="R17" s="61">
+      <c r="R17" s="77">
         <v>0.157004</v>
       </c>
-      <c r="S17" s="61">
+      <c r="S17" s="77">
         <v>0.13977</v>
       </c>
-      <c r="T17" s="61">
+      <c r="T17" s="77">
         <v>0.033333</v>
       </c>
-      <c r="U17" s="61">
+      <c r="U17" s="77">
         <v>0.0325</v>
       </c>
-      <c r="V17" s="61">
+      <c r="V17" s="77">
         <v>0.032333</v>
       </c>
-      <c r="W17" s="60">
+      <c r="W17" s="74">
         <v>0.032323</v>
       </c>
-      <c r="X17" s="60">
+      <c r="X17" s="74">
         <v>5.095</v>
       </c>
-      <c r="Y17" s="60">
+      <c r="Y17" s="74">
         <v>8.97</v>
       </c>
-      <c r="Z17" s="60">
+      <c r="Z17" s="74">
         <v>9.8</v>
       </c>
-      <c r="AA17" s="60">
+      <c r="AA17" s="74">
         <v>8.075</v>
       </c>
-      <c r="AB17" s="60">
+      <c r="AB17" s="74">
         <v>17.555</v>
       </c>
-      <c r="AC17" s="60">
+      <c r="AC17" s="74">
         <v>21.5</v>
       </c>
-      <c r="AD17" s="60">
+      <c r="AD17" s="74">
         <v>1.03</v>
       </c>
-      <c r="AE17" s="60">
+      <c r="AE17" s="74">
         <v>5.16</v>
       </c>
-      <c r="AF17" s="60">
+      <c r="AF17" s="74">
         <v>8.3</v>
       </c>
-      <c r="AG17" s="60">
+      <c r="AG17" s="74">
         <v>0.065</v>
       </c>
-      <c r="AH17" s="60">
+      <c r="AH17" s="74">
         <v>1.045</v>
       </c>
-      <c r="AI17" s="60">
+      <c r="AI17" s="74">
         <v>1.1</v>
       </c>
-      <c r="AJ17" s="73"/>
+      <c r="AJ17" s="88"/>
     </row>
-    <row r="18" s="40" customFormat="1" spans="1:36">
-      <c r="A18" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="58" t="s">
+    <row r="18" s="41" customFormat="1" spans="1:36">
+      <c r="A18" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="76">
         <v>1229.14</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="76">
         <v>0.568907</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="76">
         <v>0.64724</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="76">
         <v>0.59013</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="76">
         <v>0.616805</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="76">
         <v>0.365231</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="76">
         <v>0.368611</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="76">
         <v>0.351856</v>
       </c>
-      <c r="K18" s="58">
+      <c r="K18" s="76">
         <v>0.358256</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="76">
         <v>0.209976</v>
       </c>
-      <c r="M18" s="58">
+      <c r="M18" s="76">
         <v>0.262443</v>
       </c>
-      <c r="N18" s="58">
+      <c r="N18" s="76">
         <v>0.218991</v>
       </c>
-      <c r="O18" s="58">
+      <c r="O18" s="76">
         <v>0.237616</v>
       </c>
-      <c r="P18" s="58">
+      <c r="P18" s="76">
         <v>0.215155</v>
       </c>
-      <c r="Q18" s="58">
+      <c r="Q18" s="76">
         <v>0.298073</v>
       </c>
-      <c r="R18" s="58">
+      <c r="R18" s="76">
         <v>0.230721</v>
       </c>
-      <c r="S18" s="58">
+      <c r="S18" s="76">
         <v>0.258597</v>
       </c>
-      <c r="T18" s="58">
+      <c r="T18" s="76">
         <v>0.015833</v>
       </c>
-      <c r="U18" s="58">
+      <c r="U18" s="76">
         <v>0.015</v>
       </c>
-      <c r="V18" s="58">
+      <c r="V18" s="76">
         <v>0.014833</v>
       </c>
-      <c r="W18" s="58">
+      <c r="W18" s="76">
         <v>0.014823</v>
       </c>
-      <c r="X18" s="58">
+      <c r="X18" s="76">
         <v>6.215</v>
       </c>
-      <c r="Y18" s="58">
+      <c r="Y18" s="76">
         <v>11.515</v>
       </c>
-      <c r="Z18" s="58">
+      <c r="Z18" s="76">
         <v>9.8</v>
       </c>
-      <c r="AA18" s="58">
+      <c r="AA18" s="76">
         <v>8.715</v>
       </c>
-      <c r="AB18" s="58">
+      <c r="AB18" s="76">
         <v>21.245</v>
       </c>
-      <c r="AC18" s="58">
+      <c r="AC18" s="76">
         <v>21.5</v>
       </c>
-      <c r="AD18" s="58">
+      <c r="AD18" s="76">
         <v>2.405</v>
       </c>
-      <c r="AE18" s="58">
+      <c r="AE18" s="76">
         <v>12.35</v>
       </c>
-      <c r="AF18" s="58">
+      <c r="AF18" s="76">
         <v>8.3</v>
       </c>
-      <c r="AG18" s="58">
+      <c r="AG18" s="76">
         <v>0.03</v>
       </c>
-      <c r="AH18" s="58">
+      <c r="AH18" s="76">
         <v>0.42</v>
       </c>
-      <c r="AI18" s="58">
+      <c r="AI18" s="76">
         <v>1.1</v>
       </c>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" s="42" customFormat="1" spans="1:36">
-      <c r="A19" s="59" t="s">
+    <row r="19" s="43" customFormat="1" spans="1:36">
+      <c r="A19" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="74">
+        <v>1323.31</v>
+      </c>
+      <c r="D19" s="77">
+        <v>0.6108</v>
+      </c>
+      <c r="E19" s="77">
+        <v>0.6269</v>
+      </c>
+      <c r="F19" s="77">
+        <v>0.5981</v>
+      </c>
+      <c r="G19" s="77">
+        <v>0.6071</v>
+      </c>
+      <c r="H19" s="77">
+        <v>0.3911</v>
+      </c>
+      <c r="I19" s="77">
+        <v>0.3608</v>
+      </c>
+      <c r="J19" s="77">
+        <v>0.3553</v>
+      </c>
+      <c r="K19" s="77">
+        <v>0.3553</v>
+      </c>
+      <c r="L19" s="77">
+        <v>0.2627</v>
+      </c>
+      <c r="M19" s="77">
+        <v>0.2254</v>
+      </c>
+      <c r="N19" s="77">
+        <v>0.2219</v>
+      </c>
+      <c r="O19" s="77">
+        <v>0.2193</v>
+      </c>
+      <c r="P19" s="77">
+        <v>0.2627</v>
+      </c>
+      <c r="Q19" s="77">
+        <v>0.277</v>
+      </c>
+      <c r="R19" s="77">
+        <v>0.2388</v>
+      </c>
+      <c r="S19" s="77">
+        <v>0.2507</v>
+      </c>
+      <c r="T19" s="77">
+        <v>0</v>
+      </c>
+      <c r="U19" s="77">
+        <v>0</v>
+      </c>
+      <c r="V19" s="77">
+        <v>0</v>
+      </c>
+      <c r="W19" s="74">
+        <v>0</v>
+      </c>
+      <c r="X19" s="74">
+        <v>6.11</v>
+      </c>
+      <c r="Y19" s="74">
+        <v>10.52</v>
+      </c>
+      <c r="Z19" s="74">
+        <v>9.8</v>
+      </c>
+      <c r="AA19" s="74">
+        <v>9.455</v>
+      </c>
+      <c r="AB19" s="74">
+        <v>21.25</v>
+      </c>
+      <c r="AC19" s="74">
+        <v>21.5</v>
+      </c>
+      <c r="AD19" s="74">
+        <v>2.235</v>
+      </c>
+      <c r="AE19" s="74">
+        <v>9.74</v>
+      </c>
+      <c r="AF19" s="74">
+        <v>8.3</v>
+      </c>
+      <c r="AG19" s="74">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="74">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="74">
+        <v>1.1</v>
+      </c>
+      <c r="AJ19" s="88"/>
+    </row>
+    <row r="20" s="43" customFormat="1" spans="1:36">
+      <c r="A20" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B20" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="60">
-        <v>1323.31</v>
-      </c>
-      <c r="D19" s="61">
-        <v>0.6108</v>
-      </c>
-      <c r="E19" s="61">
-        <v>0.6269</v>
-      </c>
-      <c r="F19" s="61">
-        <v>0.5981</v>
-      </c>
-      <c r="G19" s="61">
-        <v>0.6071</v>
-      </c>
-      <c r="H19" s="61">
-        <v>0.3911</v>
-      </c>
-      <c r="I19" s="61">
-        <v>0.3608</v>
-      </c>
-      <c r="J19" s="61">
-        <v>0.3553</v>
-      </c>
-      <c r="K19" s="61">
-        <v>0.3553</v>
-      </c>
-      <c r="L19" s="61">
-        <v>0.2627</v>
-      </c>
-      <c r="M19" s="61">
-        <v>0.2254</v>
-      </c>
-      <c r="N19" s="61">
-        <v>0.2219</v>
-      </c>
-      <c r="O19" s="61">
-        <v>0.2193</v>
-      </c>
-      <c r="P19" s="61">
-        <v>0.2627</v>
-      </c>
-      <c r="Q19" s="61">
-        <v>0.277</v>
-      </c>
-      <c r="R19" s="61">
-        <v>0.2388</v>
-      </c>
-      <c r="S19" s="61">
-        <v>0.2507</v>
-      </c>
-      <c r="T19" s="61">
-        <v>0</v>
-      </c>
-      <c r="U19" s="61">
-        <v>0</v>
-      </c>
-      <c r="V19" s="61">
-        <v>0</v>
-      </c>
-      <c r="W19" s="60">
-        <v>0</v>
-      </c>
-      <c r="X19" s="60">
-        <v>6.11</v>
-      </c>
-      <c r="Y19" s="60">
-        <v>10.52</v>
-      </c>
-      <c r="Z19" s="60">
+      <c r="C20" s="74">
+        <v>1860.575</v>
+      </c>
+      <c r="D20" s="77">
+        <v>0.5254</v>
+      </c>
+      <c r="E20" s="77">
+        <v>0.4835</v>
+      </c>
+      <c r="F20" s="77">
+        <v>0.4703</v>
+      </c>
+      <c r="G20" s="77">
+        <v>0.4676</v>
+      </c>
+      <c r="H20" s="77">
+        <v>0.3762</v>
+      </c>
+      <c r="I20" s="77">
+        <v>0.1996</v>
+      </c>
+      <c r="J20" s="77">
+        <v>0.233</v>
+      </c>
+      <c r="K20" s="77">
+        <v>0.2089</v>
+      </c>
+      <c r="L20" s="77">
+        <v>0.194</v>
+      </c>
+      <c r="M20" s="77">
+        <v>0.1883</v>
+      </c>
+      <c r="N20" s="77">
+        <v>0.176</v>
+      </c>
+      <c r="O20" s="77">
+        <v>0.1785</v>
+      </c>
+      <c r="P20" s="77">
+        <v>0.2158</v>
+      </c>
+      <c r="Q20" s="77">
+        <v>0.2222</v>
+      </c>
+      <c r="R20" s="77">
+        <v>0.191</v>
+      </c>
+      <c r="S20" s="77">
+        <v>0.198</v>
+      </c>
+      <c r="T20" s="77">
+        <v>0.0175</v>
+      </c>
+      <c r="U20" s="77">
+        <v>0.0125</v>
+      </c>
+      <c r="V20" s="77">
+        <v>0.0142</v>
+      </c>
+      <c r="W20" s="74">
+        <v>0.0131</v>
+      </c>
+      <c r="X20" s="74">
+        <v>4.63</v>
+      </c>
+      <c r="Y20" s="74">
+        <v>10.23</v>
+      </c>
+      <c r="Z20" s="74">
         <v>9.8</v>
       </c>
-      <c r="AA19" s="60">
-        <v>9.455</v>
-      </c>
-      <c r="AB19" s="60">
-        <v>21.25</v>
-      </c>
-      <c r="AC19" s="60">
+      <c r="AA20" s="74">
+        <v>4.565</v>
+      </c>
+      <c r="AB20" s="74">
+        <v>11.25</v>
+      </c>
+      <c r="AC20" s="74">
         <v>21.5</v>
       </c>
-      <c r="AD19" s="60">
-        <v>2.235</v>
-      </c>
-      <c r="AE19" s="60">
-        <v>9.74</v>
-      </c>
-      <c r="AF19" s="60">
+      <c r="AD20" s="74">
+        <v>1.675</v>
+      </c>
+      <c r="AE20" s="74">
+        <v>10.02</v>
+      </c>
+      <c r="AF20" s="74">
         <v>8.3</v>
       </c>
-      <c r="AG19" s="60">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="60">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="60">
+      <c r="AG20" s="74">
+        <v>0.025</v>
+      </c>
+      <c r="AH20" s="74">
+        <v>0.895</v>
+      </c>
+      <c r="AI20" s="74">
         <v>1.1</v>
       </c>
-      <c r="AJ19" s="73"/>
+      <c r="AJ20" s="88"/>
     </row>
-    <row r="20" s="42" customFormat="1" spans="1:36">
-      <c r="A20" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="60">
-        <v>1860.575</v>
-      </c>
-      <c r="D20" s="61">
-        <v>0.5254</v>
-      </c>
-      <c r="E20" s="61">
-        <v>0.4835</v>
-      </c>
-      <c r="F20" s="61">
-        <v>0.4703</v>
-      </c>
-      <c r="G20" s="61">
-        <v>0.4676</v>
-      </c>
-      <c r="H20" s="61">
-        <v>0.3762</v>
-      </c>
-      <c r="I20" s="61">
-        <v>0.1996</v>
-      </c>
-      <c r="J20" s="61">
-        <v>0.233</v>
-      </c>
-      <c r="K20" s="61">
-        <v>0.2089</v>
-      </c>
-      <c r="L20" s="61">
-        <v>0.194</v>
-      </c>
-      <c r="M20" s="61">
-        <v>0.1883</v>
-      </c>
-      <c r="N20" s="61">
-        <v>0.176</v>
-      </c>
-      <c r="O20" s="61">
-        <v>0.1785</v>
-      </c>
-      <c r="P20" s="61">
-        <v>0.2158</v>
-      </c>
-      <c r="Q20" s="61">
-        <v>0.2222</v>
-      </c>
-      <c r="R20" s="61">
-        <v>0.191</v>
-      </c>
-      <c r="S20" s="61">
-        <v>0.198</v>
-      </c>
-      <c r="T20" s="61">
-        <v>0.0175</v>
-      </c>
-      <c r="U20" s="61">
-        <v>0.0125</v>
-      </c>
-      <c r="V20" s="61">
-        <v>0.0142</v>
-      </c>
-      <c r="W20" s="60">
-        <v>0.0131</v>
-      </c>
-      <c r="X20" s="60">
-        <v>4.63</v>
-      </c>
-      <c r="Y20" s="60">
-        <v>10.23</v>
-      </c>
-      <c r="Z20" s="60">
-        <v>9.8</v>
-      </c>
-      <c r="AA20" s="60">
-        <v>4.565</v>
-      </c>
-      <c r="AB20" s="60">
-        <v>11.25</v>
-      </c>
-      <c r="AC20" s="60">
-        <v>21.5</v>
-      </c>
-      <c r="AD20" s="60">
-        <v>1.675</v>
-      </c>
-      <c r="AE20" s="60">
-        <v>10.02</v>
-      </c>
-      <c r="AF20" s="60">
-        <v>8.3</v>
-      </c>
-      <c r="AG20" s="60">
-        <v>0.025</v>
-      </c>
-      <c r="AH20" s="60">
-        <v>0.895</v>
-      </c>
-      <c r="AI20" s="60">
-        <v>1.1</v>
-      </c>
-      <c r="AJ20" s="73"/>
+    <row r="21" spans="1:24">
+      <c r="A21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
     </row>
-    <row r="21" spans="3:24">
-      <c r="C21" s="63"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-    </row>
-    <row r="22" spans="3:24">
-      <c r="C22" s="63"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
+    <row r="22" spans="1:24">
+      <c r="A22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
     </row>
     <row r="23" spans="1:35">
-      <c r="A23" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="68"/>
+      <c r="AI23" s="68"/>
     </row>
-    <row r="24" s="44" customFormat="1" spans="1:35">
-      <c r="A24" s="67" t="s">
+    <row r="24" s="45" customFormat="1" spans="1:35">
+      <c r="A24" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69" t="s">
+      <c r="C24" s="75"/>
+      <c r="D24" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="69" t="s">
+      <c r="G24" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="69" t="s">
+      <c r="I24" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="69" t="s">
+      <c r="J24" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="69" t="s">
+      <c r="K24" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="69" t="s">
+      <c r="L24" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="69" t="s">
+      <c r="M24" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="69" t="s">
+      <c r="N24" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="69" t="s">
+      <c r="O24" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="P24" s="69" t="s">
+      <c r="P24" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="Q24" s="69" t="s">
+      <c r="Q24" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="R24" s="69" t="s">
+      <c r="R24" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="S24" s="69" t="s">
+      <c r="S24" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="69" t="s">
+      <c r="T24" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="U24" s="69" t="s">
+      <c r="U24" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="V24" s="69" t="s">
+      <c r="V24" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="W24" s="68" t="s">
+      <c r="W24" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="X24" s="68" t="s">
+      <c r="X24" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="Y24" s="68" t="s">
+      <c r="Y24" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="Z24" s="68" t="s">
+      <c r="Z24" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="AA24" s="68" t="s">
+      <c r="AA24" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="AB24" s="68" t="s">
+      <c r="AB24" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="AC24" s="68" t="s">
+      <c r="AC24" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="AD24" s="68" t="s">
+      <c r="AD24" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="AE24" s="68" t="s">
+      <c r="AE24" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="AF24" s="68" t="s">
+      <c r="AF24" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AG24" s="68" t="s">
+      <c r="AG24" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="AH24" s="68" t="s">
+      <c r="AH24" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AI24" s="68" t="s">
+      <c r="AI24" s="75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" s="43" customFormat="1" spans="1:36">
-      <c r="A25" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="60" t="s">
+    <row r="25" s="46" customFormat="1" spans="1:35">
+      <c r="A25" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="60">
-        <v>3703.5875</v>
-      </c>
-      <c r="D25" s="60">
-        <v>0.843401</v>
-      </c>
-      <c r="E25" s="55">
-        <v>0.805679</v>
-      </c>
-      <c r="F25" s="55">
-        <v>0.808787</v>
-      </c>
-      <c r="G25" s="55">
-        <v>0.803243</v>
-      </c>
-      <c r="H25" s="60">
-        <v>0.636221</v>
-      </c>
-      <c r="I25" s="55">
-        <v>0.74107</v>
-      </c>
-      <c r="J25" s="55">
-        <v>0.648229</v>
-      </c>
-      <c r="K25" s="55">
-        <v>0.677871</v>
-      </c>
-      <c r="L25" s="60">
-        <v>0.523123</v>
-      </c>
-      <c r="M25" s="60">
-        <v>0.492183</v>
-      </c>
-      <c r="N25" s="60">
-        <v>0.465244</v>
-      </c>
-      <c r="O25" s="60">
-        <v>0.473264</v>
-      </c>
-      <c r="P25" s="60">
-        <v>0.583086</v>
-      </c>
-      <c r="Q25" s="55">
-        <v>0.549058</v>
-      </c>
-      <c r="R25" s="55">
-        <v>0.534473</v>
-      </c>
-      <c r="S25" s="55">
-        <v>0.536626</v>
-      </c>
-      <c r="T25" s="55">
-        <v>0.081944</v>
-      </c>
-      <c r="U25" s="55">
-        <v>0.078125</v>
-      </c>
-      <c r="V25" s="55">
-        <v>0.078347</v>
-      </c>
-      <c r="W25" s="60">
-        <v>0.077994</v>
-      </c>
-      <c r="X25" s="60">
-        <v>6.370833</v>
-      </c>
-      <c r="Y25" s="60">
-        <v>7.741667</v>
-      </c>
-      <c r="Z25" s="60">
-        <v>8.083333</v>
-      </c>
-      <c r="AA25" s="60">
-        <v>10.233333</v>
-      </c>
-      <c r="AB25" s="60">
-        <v>16.983333</v>
-      </c>
-      <c r="AC25" s="60">
-        <v>13.333333</v>
-      </c>
-      <c r="AD25" s="60">
-        <v>2.116667</v>
-      </c>
-      <c r="AE25" s="60">
-        <v>4.108333</v>
-      </c>
-      <c r="AF25" s="60">
-        <v>4</v>
-      </c>
-      <c r="AG25" s="60">
-        <v>0.233333</v>
-      </c>
-      <c r="AH25" s="60">
-        <v>0.995833</v>
-      </c>
-      <c r="AI25" s="60">
+      <c r="C25" s="46">
+        <v>3825.1833</v>
+      </c>
+      <c r="D25" s="46">
+        <v>0.8437</v>
+      </c>
+      <c r="E25" s="46">
+        <v>0.8047</v>
+      </c>
+      <c r="F25" s="46">
+        <v>0.8082</v>
+      </c>
+      <c r="G25" s="46">
+        <v>0.8024</v>
+      </c>
+      <c r="H25" s="46">
+        <v>0.6103</v>
+      </c>
+      <c r="I25" s="84">
+        <v>0.731</v>
+      </c>
+      <c r="J25" s="84">
+        <v>0.6301</v>
+      </c>
+      <c r="K25" s="84">
+        <v>0.6645</v>
+      </c>
+      <c r="L25" s="46">
+        <v>0.5196</v>
+      </c>
+      <c r="M25" s="46">
+        <v>0.51</v>
+      </c>
+      <c r="N25" s="46">
+        <v>0.4727</v>
+      </c>
+      <c r="O25" s="46">
+        <v>0.4867</v>
+      </c>
+      <c r="P25" s="46">
+        <v>0.5926</v>
+      </c>
+      <c r="Q25" s="46">
+        <v>0.566</v>
+      </c>
+      <c r="R25" s="46">
+        <v>0.5479</v>
+      </c>
+      <c r="S25" s="46">
+        <v>0.5519</v>
+      </c>
+      <c r="T25" s="46">
+        <v>0.0819</v>
+      </c>
+      <c r="U25" s="46">
+        <v>0.0781</v>
+      </c>
+      <c r="V25" s="46">
+        <v>0.0783</v>
+      </c>
+      <c r="W25" s="84">
+        <v>0.078</v>
+      </c>
+      <c r="X25" s="46">
+        <v>6.1875</v>
+      </c>
+      <c r="Y25" s="46">
+        <v>7.475</v>
+      </c>
+      <c r="Z25" s="46">
+        <v>7.8333</v>
+      </c>
+      <c r="AA25" s="46">
+        <v>9.9458</v>
+      </c>
+      <c r="AB25" s="46">
+        <v>17.15</v>
+      </c>
+      <c r="AC25" s="46">
+        <v>13.0833</v>
+      </c>
+      <c r="AD25" s="46">
+        <v>2.125</v>
+      </c>
+      <c r="AE25" s="46">
+        <v>4.025</v>
+      </c>
+      <c r="AF25" s="46">
+        <v>3.8333</v>
+      </c>
+      <c r="AG25" s="46">
+        <v>0.2333</v>
+      </c>
+      <c r="AH25" s="46">
+        <v>1.05</v>
+      </c>
+      <c r="AI25" s="46">
+        <v>1.3333</v>
+      </c>
+    </row>
+    <row r="26" s="32" customFormat="1" spans="1:36">
+      <c r="A26" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="32">
+        <v>6865.725</v>
+      </c>
+      <c r="D26" s="80">
+        <v>0.890128</v>
+      </c>
+      <c r="E26" s="80">
+        <v>0.837106</v>
+      </c>
+      <c r="F26" s="80">
+        <v>0.852338</v>
+      </c>
+      <c r="G26" s="80">
+        <v>0.84114</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0.63184</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0.695083</v>
+      </c>
+      <c r="J26" s="32">
+        <v>0.629291</v>
+      </c>
+      <c r="K26" s="32">
+        <v>0.644709</v>
+      </c>
+      <c r="L26" s="32">
+        <v>0.476756</v>
+      </c>
+      <c r="M26" s="32">
+        <v>0.623409</v>
+      </c>
+      <c r="N26" s="32">
+        <v>0.514155</v>
+      </c>
+      <c r="O26" s="32">
+        <v>0.566112</v>
+      </c>
+      <c r="P26" s="32">
+        <v>0.542938</v>
+      </c>
+      <c r="Q26" s="80">
+        <v>0.648998</v>
+      </c>
+      <c r="R26" s="80">
+        <v>0.563105</v>
+      </c>
+      <c r="S26" s="80">
+        <v>0.603958</v>
+      </c>
+      <c r="T26" s="80">
+        <v>0.207153</v>
+      </c>
+      <c r="U26" s="80">
+        <v>0.198611</v>
+      </c>
+      <c r="V26" s="80">
+        <v>0.201855</v>
+      </c>
+      <c r="W26" s="32">
+        <v>0.19969</v>
+      </c>
+      <c r="X26" s="32">
+        <v>6.3875</v>
+      </c>
+      <c r="Y26" s="32">
+        <v>7.204167</v>
+      </c>
+      <c r="Z26" s="32">
+        <v>7.833333</v>
+      </c>
+      <c r="AA26" s="32">
+        <v>8.5375</v>
+      </c>
+      <c r="AB26" s="32">
+        <v>13.433333</v>
+      </c>
+      <c r="AC26" s="32">
+        <v>13.083333</v>
+      </c>
+      <c r="AD26" s="32">
+        <v>2.433333</v>
+      </c>
+      <c r="AE26" s="32">
+        <v>4.816667</v>
+      </c>
+      <c r="AF26" s="32">
+        <v>3.833333</v>
+      </c>
+      <c r="AG26" s="32">
+        <v>0.541667</v>
+      </c>
+      <c r="AH26" s="32">
+        <v>1.770833</v>
+      </c>
+      <c r="AI26" s="32">
         <v>1.333333</v>
       </c>
-      <c r="AJ25" s="73"/>
+      <c r="AJ26" s="87"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:35">
-      <c r="A26" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="58" t="s">
+    <row r="27" s="46" customFormat="1" spans="1:35">
+      <c r="A27" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="58">
-        <v>6463.984079</v>
-      </c>
-      <c r="D26" s="58">
-        <v>0.77259375</v>
-      </c>
-      <c r="E26" s="58">
-        <v>0.8875125</v>
-      </c>
-      <c r="F26" s="58">
-        <v>0.810506667</v>
-      </c>
-      <c r="G26" s="58">
-        <v>0.84980625</v>
-      </c>
-      <c r="H26" s="58">
-        <v>0.666602917</v>
-      </c>
-      <c r="I26" s="58">
-        <v>0.786680833</v>
-      </c>
-      <c r="J26" s="58">
-        <v>0.686515833</v>
-      </c>
-      <c r="K26" s="58">
-        <v>0.716678333</v>
-      </c>
-      <c r="L26" s="58">
-        <v>0.412084583</v>
-      </c>
-      <c r="M26" s="58">
-        <v>0.62040375</v>
-      </c>
-      <c r="N26" s="58">
-        <v>0.4670375</v>
-      </c>
-      <c r="O26" s="58">
-        <v>0.53406375</v>
-      </c>
-      <c r="P26" s="58">
-        <v>0.491400417</v>
-      </c>
-      <c r="Q26" s="58">
-        <v>0.637812083</v>
-      </c>
-      <c r="R26" s="58">
-        <v>0.514352917</v>
-      </c>
-      <c r="S26" s="58">
-        <v>0.569264167</v>
-      </c>
-      <c r="T26" s="58">
-        <v>0.188960833</v>
-      </c>
-      <c r="U26" s="58">
-        <v>0.193058333</v>
-      </c>
-      <c r="V26" s="58">
-        <v>0.188950833</v>
-      </c>
-      <c r="W26" s="58">
-        <v>0.19099125</v>
-      </c>
-      <c r="X26" s="58">
-        <v>6.8875</v>
-      </c>
-      <c r="Y26" s="58">
-        <v>9.116666667</v>
-      </c>
-      <c r="Z26" s="58">
-        <v>8.083333333</v>
-      </c>
-      <c r="AA26" s="58">
-        <v>9.8875</v>
-      </c>
-      <c r="AB26" s="58">
-        <v>14.9</v>
-      </c>
-      <c r="AC26" s="58">
-        <v>13.33333333</v>
-      </c>
-      <c r="AD26" s="58">
-        <v>2.45</v>
-      </c>
-      <c r="AE26" s="58">
-        <v>5.954166667</v>
-      </c>
-      <c r="AF26" s="58">
-        <v>4</v>
-      </c>
-      <c r="AG26" s="58">
-        <v>0.554166667</v>
-      </c>
-      <c r="AH26" s="58">
-        <v>2.1</v>
-      </c>
-      <c r="AI26" s="58">
-        <v>1.333333333</v>
+      <c r="C27" s="32">
+        <v>8102.60416666667</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0.642405833333333</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0.571354583333333</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0.5843975</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0.572089583333333</v>
+      </c>
+      <c r="H27" s="32">
+        <v>0.500923583333333</v>
+      </c>
+      <c r="I27" s="32">
+        <v>0.455564583333333</v>
+      </c>
+      <c r="J27" s="32">
+        <v>0.439123333333333</v>
+      </c>
+      <c r="K27" s="32">
+        <v>0.430435833333333</v>
+      </c>
+      <c r="L27" s="32">
+        <v>0.4164205</v>
+      </c>
+      <c r="M27" s="32">
+        <v>0.436719583333333</v>
+      </c>
+      <c r="N27" s="32">
+        <v>0.387139</v>
+      </c>
+      <c r="O27" s="32">
+        <v>0.405572</v>
+      </c>
+      <c r="P27" s="32">
+        <v>0.479304</v>
+      </c>
+      <c r="Q27" s="32">
+        <v>0.484345333333333</v>
+      </c>
+      <c r="R27" s="32">
+        <v>0.454258833333333</v>
+      </c>
+      <c r="S27" s="32">
+        <v>0.465697916666667</v>
+      </c>
+      <c r="T27" s="32">
+        <v>0.0588095</v>
+      </c>
+      <c r="U27" s="32">
+        <v>0.0625</v>
+      </c>
+      <c r="V27" s="32">
+        <v>0.05997475</v>
+      </c>
+      <c r="W27" s="32">
+        <v>0.0611629166666667</v>
+      </c>
+      <c r="X27" s="32">
+        <v>4.35416666666667</v>
+      </c>
+      <c r="Y27" s="32">
+        <v>7.01666666666667</v>
+      </c>
+      <c r="Z27" s="32">
+        <v>7.83333333333333</v>
+      </c>
+      <c r="AA27" s="32">
+        <v>5.36666666666667</v>
+      </c>
+      <c r="AB27" s="32">
+        <v>10.2416666666667</v>
+      </c>
+      <c r="AC27" s="32">
+        <v>13.0833333333333</v>
+      </c>
+      <c r="AD27" s="32">
+        <v>1.77083333333333</v>
+      </c>
+      <c r="AE27" s="32">
+        <v>3.6</v>
+      </c>
+      <c r="AF27" s="32">
+        <v>3.83333333333333</v>
+      </c>
+      <c r="AG27" s="32">
+        <v>0.170833333333333</v>
+      </c>
+      <c r="AH27" s="32">
+        <v>1.24166666666667</v>
+      </c>
+      <c r="AI27" s="32">
+        <v>1.33333333333333</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:35">
-      <c r="A27" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="56" t="s">
+    <row r="28" s="32" customFormat="1" spans="1:35">
+      <c r="A28" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="56">
-        <v>7986.85</v>
-      </c>
-      <c r="D27" s="56">
-        <v>0.635587</v>
-      </c>
-      <c r="E27" s="56">
-        <v>0.567006</v>
-      </c>
-      <c r="F27" s="56">
-        <v>0.578202</v>
-      </c>
-      <c r="G27" s="56">
-        <v>0.566875</v>
-      </c>
-      <c r="H27" s="56">
-        <v>0.490752</v>
-      </c>
-      <c r="I27" s="56">
-        <v>0.437023</v>
-      </c>
-      <c r="J27" s="56">
-        <v>0.420157</v>
-      </c>
-      <c r="K27" s="56">
-        <v>0.411463</v>
-      </c>
-      <c r="L27" s="56">
-        <v>0.399719</v>
-      </c>
-      <c r="M27" s="56">
-        <v>0.413505</v>
-      </c>
-      <c r="N27" s="56">
-        <v>0.36905</v>
-      </c>
-      <c r="O27" s="56">
-        <v>0.384722</v>
-      </c>
-      <c r="P27" s="56">
-        <v>0.459633</v>
-      </c>
-      <c r="Q27" s="56">
-        <v>0.461131</v>
-      </c>
-      <c r="R27" s="56">
-        <v>0.429847</v>
-      </c>
-      <c r="S27" s="56">
-        <v>0.441531</v>
-      </c>
-      <c r="T27" s="56">
-        <v>0.05881</v>
-      </c>
-      <c r="U27" s="56">
-        <v>0.0625</v>
-      </c>
-      <c r="V27" s="56">
-        <v>0.059975</v>
-      </c>
-      <c r="W27" s="56">
-        <v>0.061163</v>
-      </c>
-      <c r="X27" s="56">
-        <v>4.416667</v>
-      </c>
-      <c r="Y27" s="56">
-        <v>7.183333</v>
-      </c>
-      <c r="Z27" s="56">
-        <v>8.083333</v>
-      </c>
-      <c r="AA27" s="56">
-        <v>5.179167</v>
-      </c>
-      <c r="AB27" s="56">
-        <v>10.183333</v>
-      </c>
-      <c r="AC27" s="56">
-        <v>13.333333</v>
-      </c>
-      <c r="AD27" s="56">
-        <v>1.708333</v>
-      </c>
-      <c r="AE27" s="56">
-        <v>3.675</v>
-      </c>
-      <c r="AF27" s="56">
-        <v>4</v>
-      </c>
-      <c r="AG27" s="56">
-        <v>0.170833</v>
-      </c>
-      <c r="AH27" s="56">
-        <v>1.2375</v>
-      </c>
-      <c r="AI27" s="56">
-        <v>1.333333</v>
+      <c r="C28" s="32">
+        <v>521.941666666667</v>
+      </c>
+      <c r="D28" s="32">
+        <v>0.8854985</v>
+      </c>
+      <c r="E28" s="32">
+        <v>0.73336425</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0.781354833333333</v>
+      </c>
+      <c r="G28" s="32">
+        <v>0.748831083333333</v>
+      </c>
+      <c r="H28" s="32">
+        <v>0.63653825</v>
+      </c>
+      <c r="I28" s="32">
+        <v>0.712583333333333</v>
+      </c>
+      <c r="J28" s="32">
+        <v>0.6342</v>
+      </c>
+      <c r="K28" s="32">
+        <v>0.65481275</v>
+      </c>
+      <c r="L28" s="32">
+        <v>0.50512775</v>
+      </c>
+      <c r="M28" s="32">
+        <v>0.354766666666667</v>
+      </c>
+      <c r="N28" s="32">
+        <v>0.381075166666667</v>
+      </c>
+      <c r="O28" s="32">
+        <v>0.360149583333333</v>
+      </c>
+      <c r="P28" s="32">
+        <v>0.558908333333333</v>
+      </c>
+      <c r="Q28" s="32">
+        <v>0.425233333333333</v>
+      </c>
+      <c r="R28" s="32">
+        <v>0.456288333333333</v>
+      </c>
+      <c r="S28" s="32">
+        <v>0.432527416666667</v>
+      </c>
+      <c r="T28" s="32">
+        <v>0.0118083333333333</v>
+      </c>
+      <c r="U28" s="32">
+        <v>0.00520833333333333</v>
+      </c>
+      <c r="V28" s="32">
+        <v>0.00660833333333333</v>
+      </c>
+      <c r="W28" s="32">
+        <v>0.00563333333333333</v>
+      </c>
+      <c r="X28" s="32">
+        <v>5.55833333333333</v>
+      </c>
+      <c r="Y28" s="32">
+        <v>6.32916666666667</v>
+      </c>
+      <c r="Z28" s="32">
+        <v>7.83333333333333</v>
+      </c>
+      <c r="AA28" s="32">
+        <v>8.67916666666667</v>
+      </c>
+      <c r="AB28" s="32">
+        <v>13.975</v>
+      </c>
+      <c r="AC28" s="32">
+        <v>13.0833333333333</v>
+      </c>
+      <c r="AD28" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="AE28" s="32">
+        <v>2.6375</v>
+      </c>
+      <c r="AF28" s="32">
+        <v>3.83333333333333</v>
+      </c>
+      <c r="AG28" s="32">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="AH28" s="32">
+        <v>0.558333333333333</v>
+      </c>
+      <c r="AI28" s="32">
+        <v>1.33333333333333</v>
       </c>
     </row>
-    <row r="28" s="42" customFormat="1" spans="1:36">
-      <c r="A28" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="60" t="s">
+    <row r="29" s="46" customFormat="1" spans="1:35">
+      <c r="A29" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="56">
-        <v>524.2792</v>
-      </c>
-      <c r="D28" s="70">
-        <v>0.8778</v>
-      </c>
-      <c r="E28" s="61">
-        <v>0.7066</v>
-      </c>
-      <c r="F28" s="61">
-        <v>0.7618</v>
-      </c>
-      <c r="G28" s="61">
-        <v>0.7246</v>
-      </c>
-      <c r="H28" s="61">
-        <v>0.6794</v>
-      </c>
-      <c r="I28" s="61">
-        <v>0.6956</v>
-      </c>
-      <c r="J28" s="61">
-        <v>0.6431</v>
-      </c>
-      <c r="K28" s="61">
-        <v>0.6478</v>
-      </c>
-      <c r="L28" s="61">
-        <v>0.4377</v>
-      </c>
-      <c r="M28" s="61">
-        <v>0.3095</v>
-      </c>
-      <c r="N28" s="61">
-        <v>0.3254</v>
-      </c>
-      <c r="O28" s="61">
-        <v>0.311</v>
-      </c>
-      <c r="P28" s="61">
-        <v>0.4927</v>
-      </c>
-      <c r="Q28" s="61">
-        <v>0.3644</v>
-      </c>
-      <c r="R28" s="61">
-        <v>0.393</v>
-      </c>
-      <c r="S28" s="61">
-        <v>0.3712</v>
-      </c>
-      <c r="T28" s="61">
-        <v>0.0118</v>
-      </c>
-      <c r="U28" s="61">
-        <v>0.0052</v>
-      </c>
-      <c r="V28" s="61">
-        <v>0.0066</v>
-      </c>
-      <c r="W28" s="60">
-        <v>0.0056</v>
-      </c>
-      <c r="X28" s="60">
-        <v>5.4833</v>
-      </c>
-      <c r="Y28" s="60">
-        <v>6.3042</v>
-      </c>
-      <c r="Z28" s="60">
-        <v>8.0833</v>
-      </c>
-      <c r="AA28" s="60">
-        <v>8.6083</v>
-      </c>
-      <c r="AB28" s="60">
-        <v>12.95</v>
-      </c>
-      <c r="AC28" s="60">
-        <v>13.3333</v>
-      </c>
-      <c r="AD28" s="60">
-        <v>1.2833</v>
-      </c>
-      <c r="AE28" s="60">
-        <v>2.5583</v>
-      </c>
-      <c r="AF28" s="60">
-        <v>4</v>
-      </c>
-      <c r="AG28" s="60">
-        <v>0.0167</v>
-      </c>
-      <c r="AH28" s="60">
-        <v>0.7083</v>
-      </c>
-      <c r="AI28" s="60">
-        <v>1.3333</v>
-      </c>
-      <c r="AJ28" s="73"/>
+      <c r="C29" s="32">
+        <v>735.9</v>
+      </c>
+      <c r="D29" s="81">
+        <v>0.669104583333333</v>
+      </c>
+      <c r="E29" s="81">
+        <v>0.69280725</v>
+      </c>
+      <c r="F29" s="81">
+        <v>0.665331</v>
+      </c>
+      <c r="G29" s="81">
+        <v>0.677806083333333</v>
+      </c>
+      <c r="H29" s="81">
+        <v>0.541780416666667</v>
+      </c>
+      <c r="I29" s="81">
+        <v>0.501943166666667</v>
+      </c>
+      <c r="J29" s="81">
+        <v>0.469589166666667</v>
+      </c>
+      <c r="K29" s="81">
+        <v>0.462480833333333</v>
+      </c>
+      <c r="L29" s="81">
+        <v>0.363362166666667</v>
+      </c>
+      <c r="M29" s="81">
+        <v>0.439937166666667</v>
+      </c>
+      <c r="N29" s="81">
+        <v>0.365085666666667</v>
+      </c>
+      <c r="O29" s="81">
+        <v>0.396937666666667</v>
+      </c>
+      <c r="P29" s="81">
+        <v>0.38498675</v>
+      </c>
+      <c r="Q29" s="81">
+        <v>0.50622025</v>
+      </c>
+      <c r="R29" s="32">
+        <v>0.415439583333333</v>
+      </c>
+      <c r="S29" s="32">
+        <v>0.457689666666667</v>
+      </c>
+      <c r="T29" s="32">
+        <v>0.0225694166666667</v>
+      </c>
+      <c r="U29" s="32">
+        <v>0.025</v>
+      </c>
+      <c r="V29" s="32">
+        <v>0.02347225</v>
+      </c>
+      <c r="W29" s="32">
+        <v>0.024274</v>
+      </c>
+      <c r="X29" s="32">
+        <v>5.225</v>
+      </c>
+      <c r="Y29" s="32">
+        <v>8.12916666666667</v>
+      </c>
+      <c r="Z29" s="32">
+        <v>7.83333333333333</v>
+      </c>
+      <c r="AA29" s="32">
+        <v>5.93333333333333</v>
+      </c>
+      <c r="AB29" s="32">
+        <v>9.9625</v>
+      </c>
+      <c r="AC29" s="32">
+        <v>13.0833333333333</v>
+      </c>
+      <c r="AD29" s="32">
+        <v>1.8125</v>
+      </c>
+      <c r="AE29" s="32">
+        <v>4.12916666666667</v>
+      </c>
+      <c r="AF29" s="32">
+        <v>3.83333333333333</v>
+      </c>
+      <c r="AG29" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="AH29" s="32">
+        <v>0.433333333333333</v>
+      </c>
+      <c r="AI29" s="32">
+        <v>1.33333333333333</v>
+      </c>
     </row>
-    <row r="29" s="40" customFormat="1" spans="1:36">
-      <c r="A29" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="58" t="s">
+    <row r="30" s="32" customFormat="1" spans="1:35">
+      <c r="A30" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="58">
-        <v>683.791667</v>
-      </c>
-      <c r="D29" s="58">
-        <v>0.722694</v>
-      </c>
-      <c r="E29" s="58">
-        <v>0.70962</v>
-      </c>
-      <c r="F29" s="58">
-        <v>0.700941</v>
-      </c>
-      <c r="G29" s="58">
-        <v>0.702569</v>
-      </c>
-      <c r="H29" s="58">
-        <v>0.648967</v>
-      </c>
-      <c r="I29" s="58">
-        <v>0.56953</v>
-      </c>
-      <c r="J29" s="58">
-        <v>0.54923</v>
-      </c>
-      <c r="K29" s="58">
-        <v>0.533957</v>
-      </c>
-      <c r="L29" s="58">
-        <v>0.418719</v>
-      </c>
-      <c r="M29" s="58">
-        <v>0.494223</v>
-      </c>
-      <c r="N29" s="58">
-        <v>0.419069</v>
-      </c>
-      <c r="O29" s="58">
-        <v>0.4509</v>
-      </c>
-      <c r="P29" s="58">
-        <v>0.44516</v>
-      </c>
-      <c r="Q29" s="58">
-        <v>0.573899</v>
-      </c>
-      <c r="R29" s="58">
-        <v>0.476658</v>
-      </c>
-      <c r="S29" s="58">
-        <v>0.521599</v>
-      </c>
-      <c r="T29" s="58">
-        <v>0.022569</v>
-      </c>
-      <c r="U29" s="58">
-        <v>0.025</v>
-      </c>
-      <c r="V29" s="58">
-        <v>0.023472</v>
-      </c>
-      <c r="W29" s="58">
-        <v>0.024274</v>
-      </c>
-      <c r="X29" s="58">
-        <v>5.554167</v>
-      </c>
-      <c r="Y29" s="58">
-        <v>7.783333</v>
-      </c>
-      <c r="Z29" s="58">
-        <v>8.083333</v>
-      </c>
-      <c r="AA29" s="58">
-        <v>6.979167</v>
-      </c>
-      <c r="AB29" s="58">
-        <v>11.266667</v>
-      </c>
-      <c r="AC29" s="58">
-        <v>13.333333</v>
-      </c>
-      <c r="AD29" s="58">
-        <v>2.195833</v>
-      </c>
-      <c r="AE29" s="58">
-        <v>5.120833</v>
-      </c>
-      <c r="AF29" s="58">
-        <v>4</v>
-      </c>
-      <c r="AG29" s="58">
-        <v>0.05</v>
-      </c>
-      <c r="AH29" s="58">
-        <v>0.5375</v>
-      </c>
-      <c r="AI29" s="58">
-        <v>1.333333</v>
-      </c>
-      <c r="AJ29" s="3"/>
+      <c r="C30" s="32">
+        <v>824.845833333333</v>
+      </c>
+      <c r="D30" s="32">
+        <v>0.746916416666667</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0.688733916666667</v>
+      </c>
+      <c r="F30" s="32">
+        <v>0.696494083333333</v>
+      </c>
+      <c r="G30" s="32">
+        <v>0.687413916666667</v>
+      </c>
+      <c r="H30" s="32">
+        <v>0.535294583333333</v>
+      </c>
+      <c r="I30" s="32">
+        <v>0.605945166666667</v>
+      </c>
+      <c r="J30" s="32">
+        <v>0.529706916666667</v>
+      </c>
+      <c r="K30" s="32">
+        <v>0.546708333333333</v>
+      </c>
+      <c r="L30" s="32">
+        <v>0.397086083333333</v>
+      </c>
+      <c r="M30" s="32">
+        <v>0.349691666666667</v>
+      </c>
+      <c r="N30" s="32">
+        <v>0.331147</v>
+      </c>
+      <c r="O30" s="32">
+        <v>0.333271833333333</v>
+      </c>
+      <c r="P30" s="32">
+        <v>0.397086083333333</v>
+      </c>
+      <c r="Q30" s="32">
+        <v>0.401933333333333</v>
+      </c>
+      <c r="R30" s="32">
+        <v>0.371588666666667</v>
+      </c>
+      <c r="S30" s="32">
+        <v>0.380805166666667</v>
+      </c>
+      <c r="T30" s="32">
+        <v>0</v>
+      </c>
+      <c r="U30" s="32">
+        <v>0</v>
+      </c>
+      <c r="V30" s="32">
+        <v>0</v>
+      </c>
+      <c r="W30" s="32">
+        <v>0</v>
+      </c>
+      <c r="X30" s="32">
+        <v>5.19166666666667</v>
+      </c>
+      <c r="Y30" s="32">
+        <v>7.46666666666667</v>
+      </c>
+      <c r="Z30" s="32">
+        <v>7.83333333333333</v>
+      </c>
+      <c r="AA30" s="32">
+        <v>7.225</v>
+      </c>
+      <c r="AB30" s="32">
+        <v>11.8708333333333</v>
+      </c>
+      <c r="AC30" s="32">
+        <v>13.0833333333333</v>
+      </c>
+      <c r="AD30" s="32">
+        <v>1.375</v>
+      </c>
+      <c r="AE30" s="32">
+        <v>3.54166666666667</v>
+      </c>
+      <c r="AF30" s="32">
+        <v>3.83333333333333</v>
+      </c>
+      <c r="AG30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="32">
+        <v>1.33333333333333</v>
+      </c>
     </row>
-    <row r="30" s="42" customFormat="1" spans="1:36">
-      <c r="A30" s="59" t="s">
+    <row r="31" s="43" customFormat="1" spans="1:36">
+      <c r="A31" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B31" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="60">
-        <v>785.1458</v>
-      </c>
-      <c r="D30" s="61">
-        <v>0.8085</v>
-      </c>
-      <c r="E30" s="61">
-        <v>0.7088</v>
-      </c>
-      <c r="F30" s="61">
-        <v>0.739</v>
-      </c>
-      <c r="G30" s="61">
-        <v>0.7175</v>
-      </c>
-      <c r="H30" s="61">
-        <v>0.6295</v>
-      </c>
-      <c r="I30" s="61">
-        <v>0.6684</v>
-      </c>
-      <c r="J30" s="61">
-        <v>0.601</v>
-      </c>
-      <c r="K30" s="61">
-        <v>0.6119</v>
-      </c>
-      <c r="L30" s="61">
-        <v>0.463</v>
-      </c>
-      <c r="M30" s="61">
-        <v>0.3912</v>
-      </c>
-      <c r="N30" s="61">
-        <v>0.3804</v>
-      </c>
-      <c r="O30" s="61">
-        <v>0.3775</v>
-      </c>
-      <c r="P30" s="61">
-        <v>0.463</v>
-      </c>
-      <c r="Q30" s="61">
-        <v>0.452</v>
-      </c>
-      <c r="R30" s="61">
-        <v>0.4251</v>
-      </c>
-      <c r="S30" s="61">
-        <v>0.4316</v>
-      </c>
-      <c r="T30" s="61">
-        <v>0</v>
-      </c>
-      <c r="U30" s="61">
-        <v>0</v>
-      </c>
-      <c r="V30" s="61">
-        <v>0</v>
-      </c>
-      <c r="W30" s="60">
-        <v>0</v>
-      </c>
-      <c r="X30" s="60">
-        <v>5.55</v>
-      </c>
-      <c r="Y30" s="60">
-        <v>6.9417</v>
-      </c>
-      <c r="Z30" s="60">
-        <v>8.0833</v>
-      </c>
-      <c r="AA30" s="60">
-        <v>8.2167</v>
-      </c>
-      <c r="AB30" s="60">
-        <v>13.1708</v>
-      </c>
-      <c r="AC30" s="60">
-        <v>13.3333</v>
-      </c>
-      <c r="AD30" s="60">
-        <v>1.6792</v>
-      </c>
-      <c r="AE30" s="60">
-        <v>4.2875</v>
-      </c>
-      <c r="AF30" s="60">
-        <v>4</v>
-      </c>
-      <c r="AG30" s="60">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="60">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="60">
-        <v>1.3333</v>
-      </c>
-      <c r="AJ30" s="73"/>
+      <c r="C31" s="74">
+        <v>1307.8</v>
+      </c>
+      <c r="D31" s="77">
+        <v>0.73200325</v>
+      </c>
+      <c r="E31" s="77">
+        <v>0.610247</v>
+      </c>
+      <c r="F31" s="77">
+        <v>0.635510083333333</v>
+      </c>
+      <c r="G31" s="77">
+        <v>0.615917416666667</v>
+      </c>
+      <c r="H31" s="82">
+        <v>0.698628916666667</v>
+      </c>
+      <c r="I31" s="77">
+        <v>0.52506525</v>
+      </c>
+      <c r="J31" s="77">
+        <v>0.53212425</v>
+      </c>
+      <c r="K31" s="77">
+        <v>0.502875833333333</v>
+      </c>
+      <c r="L31" s="77">
+        <v>0.547036916666667</v>
+      </c>
+      <c r="M31" s="77">
+        <v>0.423075</v>
+      </c>
+      <c r="N31" s="77">
+        <v>0.427668833333333</v>
+      </c>
+      <c r="O31" s="77">
+        <v>0.416926083333333</v>
+      </c>
+      <c r="P31" s="82">
+        <v>0.620657916666667</v>
+      </c>
+      <c r="Q31" s="77">
+        <v>0.499275</v>
+      </c>
+      <c r="R31" s="77">
+        <v>0.523244833333333</v>
+      </c>
+      <c r="S31" s="77">
+        <v>0.503518583333333</v>
+      </c>
+      <c r="T31" s="77">
+        <v>0.0142333333333333</v>
+      </c>
+      <c r="U31" s="77">
+        <v>0.015625</v>
+      </c>
+      <c r="V31" s="77">
+        <v>0.0147916666666667</v>
+      </c>
+      <c r="W31" s="74">
+        <v>0.01525</v>
+      </c>
+      <c r="X31" s="74">
+        <v>4.64583333333333</v>
+      </c>
+      <c r="Y31" s="74">
+        <v>6.89583333333333</v>
+      </c>
+      <c r="Z31" s="74">
+        <v>7.83333333333333</v>
+      </c>
+      <c r="AA31" s="74">
+        <v>6.37916666666667</v>
+      </c>
+      <c r="AB31" s="74">
+        <v>9.35416666666667</v>
+      </c>
+      <c r="AC31" s="74">
+        <v>13.0833333333333</v>
+      </c>
+      <c r="AD31" s="74">
+        <v>1.79166666666667</v>
+      </c>
+      <c r="AE31" s="74">
+        <v>2.81666666666667</v>
+      </c>
+      <c r="AF31" s="74">
+        <v>3.83333333333333</v>
+      </c>
+      <c r="AG31" s="74">
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="AH31" s="74">
+        <v>0.658333333333333</v>
+      </c>
+      <c r="AI31" s="74">
+        <v>1.33333333333333</v>
+      </c>
+      <c r="AJ31" s="88"/>
     </row>
-    <row r="31" s="42" customFormat="1" spans="1:36">
-      <c r="A31" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="60">
-        <v>1306.375</v>
-      </c>
-      <c r="D31" s="61">
-        <v>0.7445</v>
-      </c>
-      <c r="E31" s="61">
-        <v>0.5731</v>
-      </c>
-      <c r="F31" s="61">
-        <v>0.6077</v>
-      </c>
-      <c r="G31" s="61">
-        <v>0.5817</v>
-      </c>
-      <c r="H31" s="70">
-        <v>0.704</v>
-      </c>
-      <c r="I31" s="61">
-        <v>0.4849</v>
-      </c>
-      <c r="J31" s="61">
-        <v>0.4935</v>
-      </c>
-      <c r="K31" s="61">
-        <v>0.4626</v>
-      </c>
-      <c r="L31" s="61">
-        <v>0.5603</v>
-      </c>
-      <c r="M31" s="61">
-        <v>0.4352</v>
-      </c>
-      <c r="N31" s="61">
-        <v>0.4405</v>
-      </c>
-      <c r="O31" s="61">
-        <v>0.4293</v>
-      </c>
-      <c r="P31" s="70">
-        <v>0.6294</v>
-      </c>
-      <c r="Q31" s="61">
-        <v>0.5043</v>
-      </c>
-      <c r="R31" s="61">
-        <v>0.53</v>
-      </c>
-      <c r="S31" s="61">
-        <v>0.5092</v>
-      </c>
-      <c r="T31" s="61">
-        <v>0.0142</v>
-      </c>
-      <c r="U31" s="61">
-        <v>0.0156</v>
-      </c>
-      <c r="V31" s="61">
-        <v>0.0148</v>
-      </c>
-      <c r="W31" s="60">
-        <v>0.0152</v>
-      </c>
-      <c r="X31" s="60">
-        <v>4.4375</v>
-      </c>
-      <c r="Y31" s="60">
-        <v>6.4875</v>
-      </c>
-      <c r="Z31" s="60">
-        <v>8.0833</v>
-      </c>
-      <c r="AA31" s="60">
-        <v>5.9375</v>
-      </c>
-      <c r="AB31" s="60">
-        <v>8.8542</v>
-      </c>
-      <c r="AC31" s="60">
-        <v>13.3333</v>
-      </c>
-      <c r="AD31" s="60">
-        <v>1.9167</v>
-      </c>
-      <c r="AE31" s="60">
-        <v>3.0792</v>
-      </c>
-      <c r="AF31" s="60">
-        <v>4</v>
-      </c>
-      <c r="AG31" s="60">
-        <v>0.0333</v>
-      </c>
-      <c r="AH31" s="60">
-        <v>0.675</v>
-      </c>
-      <c r="AI31" s="60">
-        <v>1.3333</v>
-      </c>
-      <c r="AJ31" s="73"/>
+    <row r="32" spans="4:17">
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+    </row>
+    <row r="33" spans="4:17">
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7121,7 +7233,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E26"/>
+      <selection activeCell="M25" sqref="M25:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -7154,11 +7266,11 @@
       <c r="N1" s="31"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="32"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="33"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -7212,7 +7324,7 @@
     </row>
     <row r="3" s="1" customFormat="1" hidden="1" spans="1:34">
       <c r="A3" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>38</v>
@@ -7259,19 +7371,19 @@
       <c r="P3" s="20">
         <v>0.1423</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3" s="36">
         <v>0.1928</v>
       </c>
-      <c r="R3" s="36">
+      <c r="R3" s="37">
         <v>0.1584</v>
       </c>
-      <c r="S3" s="37">
-        <v>0</v>
-      </c>
-      <c r="T3" s="37">
-        <v>0</v>
-      </c>
-      <c r="U3" s="35">
+      <c r="S3" s="38">
+        <v>0</v>
+      </c>
+      <c r="T3" s="38">
+        <v>0</v>
+      </c>
+      <c r="U3" s="36">
         <v>0</v>
       </c>
       <c r="V3" s="19">
@@ -7316,7 +7428,7 @@
     </row>
     <row r="4" s="3" customFormat="1" hidden="1" spans="1:34">
       <c r="A4" s="23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>38</v>
@@ -7420,7 +7532,7 @@
     </row>
     <row r="5" s="1" customFormat="1" hidden="1" spans="1:34">
       <c r="A5" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>38</v>
@@ -7467,19 +7579,19 @@
       <c r="P5" s="20">
         <v>0.1351</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="36">
         <v>0.1792</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="37">
         <v>0.1493</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="38">
         <v>0.16</v>
       </c>
-      <c r="T5" s="37">
+      <c r="T5" s="38">
         <v>0.0516</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="36">
         <v>0.078</v>
       </c>
       <c r="V5" s="19">
@@ -7524,7 +7636,7 @@
     </row>
     <row r="6" s="1" customFormat="1" hidden="1" spans="1:34">
       <c r="A6" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>38</v>
@@ -7571,19 +7683,19 @@
       <c r="P6" s="25">
         <v>0.1871</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="36">
         <v>0.182</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="37">
         <v>0.1826</v>
       </c>
-      <c r="S6" s="36">
+      <c r="S6" s="37">
         <v>0.0343</v>
       </c>
-      <c r="T6" s="36">
+      <c r="T6" s="37">
         <v>0.0076</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6" s="36">
         <v>0.0117</v>
       </c>
       <c r="V6" s="19">
@@ -7628,7 +7740,7 @@
     </row>
     <row r="7" s="1" customFormat="1" hidden="1" spans="1:34">
       <c r="A7" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>38</v>
@@ -7675,19 +7787,19 @@
       <c r="P7" s="25">
         <v>0.12895</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7" s="36">
         <v>0.15687</v>
       </c>
-      <c r="R7" s="36">
+      <c r="R7" s="37">
         <v>0.13812</v>
       </c>
-      <c r="S7" s="36">
-        <v>0</v>
-      </c>
-      <c r="T7" s="36">
-        <v>0</v>
-      </c>
-      <c r="U7" s="35">
+      <c r="S7" s="37">
+        <v>0</v>
+      </c>
+      <c r="T7" s="37">
+        <v>0</v>
+      </c>
+      <c r="U7" s="36">
         <v>0</v>
       </c>
       <c r="V7" s="19">
@@ -7732,7 +7844,7 @@
     </row>
     <row r="8" s="3" customFormat="1" hidden="1" spans="1:34">
       <c r="A8" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>38</v>
@@ -7836,7 +7948,7 @@
     </row>
     <row r="9" s="3" customFormat="1" hidden="1" spans="1:34">
       <c r="A9" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>38</v>
@@ -7940,7 +8052,7 @@
     </row>
     <row r="10" s="13" customFormat="1" hidden="1" spans="1:34">
       <c r="A10" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="13">
         <v>0.773494222222222</v>
@@ -8041,7 +8153,7 @@
     </row>
     <row r="11" s="1" customFormat="1" hidden="1" spans="1:34">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
@@ -8129,10 +8241,10 @@
     </row>
     <row r="12" s="1" customFormat="1" hidden="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3">
         <v>0.726936</v>
@@ -8170,7 +8282,7 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
@@ -8220,7 +8332,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -8270,7 +8382,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -8328,7 +8440,7 @@
     </row>
     <row r="19" s="1" customFormat="1" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>38</v>
@@ -8378,7 +8490,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:16">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>38</v>
@@ -8428,7 +8540,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -8486,7 +8598,7 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>38</v>
@@ -8521,8 +8633,8 @@
       <c r="L25" s="3">
         <v>7.35</v>
       </c>
-      <c r="M25" s="3">
-        <v>8.083333</v>
+      <c r="M25" s="32">
+        <v>7.833333</v>
       </c>
       <c r="N25" s="3">
         <v>9.4875</v>
@@ -8536,7 +8648,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:16">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>38</v>
@@ -8571,8 +8683,8 @@
       <c r="L26" s="3">
         <v>6.55</v>
       </c>
-      <c r="M26" s="3">
-        <v>8.083333</v>
+      <c r="M26" s="32">
+        <v>7.83333333333333</v>
       </c>
       <c r="N26" s="3">
         <v>8.9</v>
@@ -8698,7 +8810,7 @@
     </row>
     <row r="3" s="3" customFormat="1" spans="1:21">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>38</v>
@@ -8763,7 +8875,7 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:21">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>38</v>
@@ -8893,7 +9005,7 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:22">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>38</v>
@@ -8959,7 +9071,7 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:21">
       <c r="A11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>38</v>
@@ -9089,7 +9201,7 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:22">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
@@ -9155,7 +9267,7 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:21">
       <c r="A18" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>38</v>
@@ -9230,8 +9342,8 @@
   <sheetPr/>
   <dimension ref="A2:AL27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -9243,10 +9355,10 @@
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -9606,10 +9718,10 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:38">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -9722,10 +9834,10 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:38">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -9838,10 +9950,10 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:38">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -9954,10 +10066,10 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:38">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -10070,10 +10182,10 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="1:38">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -10186,10 +10298,10 @@
     </row>
     <row r="19" s="1" customFormat="1" spans="1:38">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -10302,10 +10414,10 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:38">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -10418,10 +10530,10 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:38">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -10534,10 +10646,10 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="1:38">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -10650,10 +10762,10 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="1:38">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -10766,10 +10878,10 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="1:38">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -10882,10 +10994,10 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:38">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -10998,7 +11110,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:38">
       <c r="A26" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>38</v>
@@ -11114,10 +11226,10 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:38">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
